--- a/crawler/news.xlsx
+++ b/crawler/news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C227"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,3842 +458,3893 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Xử vụ cháy chung cư mini: Người thân kể về cuộc gọi 'bố ơi, cháy, cứu con với'</t>
+          <t>Trung Quốc áp thuế 125% đối với hàng hóa nhập khẩu từ Hoa Kỳ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_114_51683229/fda8ba20ac6e45301c7f.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_8_51954522/1fcce614815a6804314b.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/xu-vu-chay-chung-cu-mini-nguoi-than-ke-ve-cuoc-goi-bo-oi-chay-cuu-con-voi-r51683229.epi</t>
+          <t>https://lite.baomoi.com/trung-quoc-ap-thue-125-doi-voi-hang-hoa-nhap-khau-tu-hoa-ky-r51954522.epi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ukraine tấn công UAV 'quy mô lớn' vào Moskva, ghi nhận 4 thương vong</t>
+          <t>Bắt 2 đối tượng cầm đầu đường dây lừa đảo, mua bán người vào đặc khu Tam giác Vàng</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_293_51683820/4c5ac0cdd6833fdd6692.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2_sm/2025_04_11_294_51953594/133054c0338edad0839f.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ukraine-tan-cong-uav-quy-mo-lon-vao-moskva-ghi-nhan-4-thuong-vong-r51683820.epi</t>
+          <t>https://lite.baomoi.com/bat-2-doi-tuong-cam-dau-duong-day-lua-dao-mua-ban-nguoi-vao-dac-khu-tam-giac-vang-r51953594.epi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nguyên nhân của những bất thường thời tiết Nam Bộ thời gian qua</t>
+          <t>Lộ trình sắp xếp cấp xã, cấp tỉnh ở TP Cần Thơ, tỉnh Hậu Giang và Sóc Trăng</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_94_51683116/03badc3cca72232c7a63.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_114_51954338/68aa5064372ade74873b.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nguyen-nhan-cua-nhung-bat-thuong-thoi-tiet-nam-bo-thoi-gian-qua-r51683116.epi</t>
+          <t>https://lite.baomoi.com/lo-trinh-sap-xep-cap-xa-cap-tinh-o-tp-can-tho-tinh-hau-giang-va-soc-trang-r51954338.epi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Phủ Tổng thống Philippines lên tiếng sau khi ông Duterte bị bắt theo lệnh ICC</t>
+          <t>Ông Yoon Suk-yeol rời dinh tổng thống Hàn Quốc sau một tuần bị phế truất</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2_sm/2025_03_11_294_51683144/a938d5bec3f02aae73e1.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_23_51954000/639a1b5a7c14954acc05.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/phu-tong-thong-philippines-len-tieng-sau-khi-ong-duterte-bi-bat-theo-lenh-icc-r51683144.epi</t>
+          <t>https://lite.baomoi.com/ong-yoon-suk-yeol-roi-dinh-tong-thong-han-quoc-sau-mot-tuan-bi-phe-truat-r51954000.epi</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>'Giữ lửa' làng nghề hơn 60 năm tuổi</t>
+          <t>Câu chuyện cảm động về tình quân dân bên công trường thi công cầu Phong Châu</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_10_16_51676644/6cd1c512d05c3902604d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_83_51951845/9dc1cfc5a98b40d5199a.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/giu-lua-lang-nghe-hon-60-nam-tuoi-r51676644.epi</t>
+          <t>https://lite.baomoi.com/cau-chuyen-cam-dong-ve-tinh-quan-dan-ben-cong-truong-thi-cong-cau-phong-chau-r51951845.epi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cháu bé 16 tháng tuổi bị ô tô tông tử vong: Tạm đình chỉ cơ sở trông giữ trẻ</t>
+          <t>Vụ đánh ghen cô gái làm ngân hàng ở TP Cần Thơ: Công an đã khởi tố 4 bị can</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_20_51683127/fab21f390977e029b966.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_114_51953120/12b4734c1402fd5ca413.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chau-be-16-thang-tuoi-bi-o-to-tong-tu-vong-tam-dinh-chi-co-so-trong-giu-tre-r51683127.epi</t>
+          <t>https://lite.baomoi.com/vu-danh-ghen-co-gai-lam-ngan-hang-o-tp-can-tho-cong-an-da-khoi-to-4-bi-can-r51953120.epi</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mất tiền tỷ vì chiêu trò 'phát hiện lỗ hổng phần mềm casino'</t>
+          <t>Phát hiện nữ chủ quán cà phê tử vong, trên người không mặc quần áo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_91_51683818/ca7973ee65a08cfed5b1.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_114_51953727/86daef19885761093846.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/mat-tien-ty-vi-chieu-tro-phat-hien-lo-hong-phan-mem-casino-r51683818.epi</t>
+          <t>https://lite.baomoi.com/phat-hien-nu-chu-quan-ca-phe-tu-vong-tren-nguoi-khong-mac-quan-ao-r51953727.epi</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Thủ đô Moscow bị tấn công ồ ạt bằng UAV</t>
+          <t>Bắt quả tang 2 'chân dài' kích dục, bán dâm cho 'quý ông' trong tiệm massage ở Hải Phòng</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_5_51682830/5d642be33dadd4f38dbc.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_625_51954800/b135319256dcbf82e6cd.jpg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-do-moscow-bi-tan-cong-o-at-bang-uav-r51682830.epi</t>
+          <t>https://lite.baomoi.com/bat-qua-tang-2-chan-dai-kich-duc-ban-dam-cho-quy-ong-trong-tiem-massage-o-hai-phong-r51954800.epi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Em trai chia sẻ hình ảnh Quý Bình lúc điều trị bệnh</t>
+          <t>Phó Thủ tướng Thường trực Nguyễn Hòa Bình nhận thêm nhiệm vụ mới</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2_sm/2025_03_11_119_51683207/1abd0c341a7af324aa6b.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_15_51954581/2350638a04c4ed9ab4d5.jpg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/em-trai-chia-se-hinh-anh-quy-binh-luc-dieu-tri-benh-r51683207.epi</t>
+          <t>https://lite.baomoi.com/pho-thu-tuong-thuong-truc-nguyen-hoa-binh-nhan-them-nhiem-vu-moi-r51954581.epi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cập nhật bảng giá xe hãng Mini mới nhất tháng 3/2025</t>
+          <t>Trung ương thảo luận sâu nội dung sắp xếp bộ máy, chuẩn bị nhân sự</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_194_51683941/4341f8daee9407ca5e85.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_35_51954722/fea01a037d4d9413cd5c.jpg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cap-nhat-bang-gia-xe-hang-mini-moi-nhat-thang-3-2025-r51683941.epi</t>
+          <t>https://lite.baomoi.com/trung-uong-thao-luan-sau-noi-dung-sap-xep-bo-may-chuan-bi-nhan-su-r51954722.epi</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sáng 26/3, sẽ tuyên dương 10 Gương mặt trẻ tiêu biểu toàn quân năm 2024</t>
+          <t>Nhiều hoạt động chào mừng Tết cổ truyền Chôl Chnăm Thmây</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_294_51684165/51511b310d7fe421bd6e.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_294_51954905/c8df0c756b3b8265db2a.jpg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/sang-26-3-se-tuyen-duong-10-guong-mat-tre-tieu-bieu-toan-quan-nam-2024-r51684165.epi</t>
+          <t>https://lite.baomoi.com/nhieu-hoat-dong-chao-mung-tet-co-truyen-chol-chnam-thmay-r51954905.epi</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>X bị tấn công mạng</t>
+          <t>Vì sao một số tỉnh thành không thuộc diện sáp nhập?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_11_51683036/6231e9b6fff816a64fe9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_146_51953863/335bf0a197ef7eb127fe.jpg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/x-bi-tan-cong-mang-r51683036.epi</t>
+          <t>https://lite.baomoi.com/vi-sao-mot-so-tinh-thanh-khong-thuoc-dien-sap-nhap-r51953863.epi</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nguyên nhân tiếng nổ 'vang trời' lúc rạng sáng ở Mễ Trì</t>
+          <t>Thông tin về việc sáp nhập TP Cần Thơ, Hậu Giang, Sóc Trăng</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2_sm/2025_03_11_15_51680888/b45ec9fbdfb536eb6fa4.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_15_51954673/6fb46e15095be005b94a.jpg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nguyen-nhan-tieng-no-vang-troi-luc-rang-sang-o-me-tri-r51680888.epi</t>
+          <t>https://lite.baomoi.com/thong-tin-ve-viec-sap-nhap-tp-can-tho-hau-giang-soc-trang-r51954673.epi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lễ trao giải cuộc thi 'An toàn giao thông cho nụ cười ngày mai'</t>
+          <t>Giá vàng giảm mạnh, người dân đổ xô đi bán vẫn không kịp</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_119_51683397/c6f3757e63308a6ed321.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_65_51953609/2b0bb4fcd3b23aec63a3.jpg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/le-trao-giai-cuoc-thi-an-toan-giao-thong-cho-nu-cuoi-ngay-mai-r51683397.epi</t>
+          <t>https://lite.baomoi.com/gia-vang-giam-manh-nguoi-dan-do-xo-di-ban-van-khong-kip-r51953609.epi</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tổng Bí thư Tô Lâm kết thúc tốt đẹp chuyến thăm cấp Nhà nước Indonesia, thăm chính thức Ban Thư ký ASEAN</t>
+          <t>Giá vàng tối nay (11/4) bất ngờ 'quay xe' giảm mạnh</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2_sm/2025_03_11_294_51683618/5ac0894e9f00765e2f11.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_625_51954799/5463d9c4be8a57d40e9b.jpg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tong-bi-thu-to-lam-ket-thuc-tot-dep-chuyen-tham-cap-nha-nuoc-indonesia-tham-chinh-thuc-ban-thu-ky-asean-r51683618.epi</t>
+          <t>https://lite.baomoi.com/gia-vang-toi-nay-11-4-bat-ngo-quay-xe-giam-manh-r51954799.epi</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dấu chấm hết cho thủ môn Bùi Tiến Dũng?</t>
+          <t>Người phụ nữ tử vong sau khi uống thuốc tại quầy</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_329_51683252/1917629c74d29d8cc4c3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_23_51954423/f7600db56afb83a5daea.jpg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dau-cham-het-cho-thu-mon-bui-tien-dung-r51683252.epi</t>
+          <t>https://lite.baomoi.com/nguoi-phu-nu-tu-vong-sau-khi-uong-thuoc-tai-quay-r51954423.epi</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Điện Biên: Ngỡ ngàng rừng hoa ban cổ thụ đẹp như cổ tích ở Nặm Cứm</t>
+          <t>Chiêm ngưỡng tháp Chăm độc đáo gần 1.000 năm ở Quảng Nam</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_10_293_51676731/ee6302a617e8feb6a7f9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_114_51950121/f069251f4351aa0ff340.jpg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dien-bien-ngo-ngang-rung-hoa-ban-co-thu-dep-nhu-co-tich-o-nam-cum-r51676731.epi</t>
+          <t>https://lite.baomoi.com/chiem-nguong-thap-cham-doc-dao-gan-1-000-nam-o-quang-nam-r51950121.epi</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Điểm mặt 3 mẫu xe điện Wuling sắp đổ bộ thị trường Việt Nam</t>
+          <t>Nữ cựu cán bộ công an hối lộ 7,7 tỷ đồng để làm gần 11.000 phiếu lý lịch tư pháp</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_194_51683668/a0112e8138cfd19188de.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_83_51952549/f9481444720a9b54c21b.jpg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/diem-mat-3-mau-xe-dien-wuling-sap-do-bo-thi-truong-viet-nam-r51683668.epi</t>
+          <t>https://lite.baomoi.com/nu-cuu-can-bo-cong-an-hoi-lo-7-7-ty-dong-de-lam-gan-11-000-phieu-ly-lich-tu-phap-r51952549.epi</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bàng hoàng cảnh bé trai bị ô tô tông chết ngay trước cơ sở giữ trẻ</t>
+          <t>Thêm 12 mỏ vàng trữ lượng 10 tấn vừa được phát hiện</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2_sm/2025_03_11_83_51683996/efd7794a6f04865adf15.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_20_51954861/987b96d2f19c18c2418d.jpg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bang-hoang-canh-be-trai-bi-o-to-tong-chet-ngay-truoc-co-so-giu-tre-r51683996.epi</t>
+          <t>https://lite.baomoi.com/them-12-mo-vang-tru-luong-10-tan-vua-duoc-phat-hien-r51954861.epi</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>'Không có chuyện tổ chức lại đơn vị hành chính rồi sắp xếp ở thời điểm khác'</t>
+          <t>Tình tiết mới nhất vụ nữ nhân viên ngân hàng bị 'đánh ghen', lột đồ ở Cần Thơ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_83_51682623/6d5271ec67a28efcd7b3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_625_51954587/34a4d479b3375a690326.jpg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/khong-co-chuyen-to-chuc-lai-don-vi-hanh-chinh-roi-sap-xep-o-thoi-diem-khac-r51682623.epi</t>
+          <t>https://lite.baomoi.com/tinh-tiet-moi-nhat-vu-nu-nhan-vien-ngan-hang-bi-danh-ghen-lot-do-o-can-tho-r51954587.epi</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nga ra đòn chốt hạ ở Kursk, thừa cơ đánh Sumy, Ukraine trước tình thế nguy cấp</t>
+          <t>Khởi tố 6 nhân viên của nhà xe Anh Phát</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_65_51683519/359ba50db3435a1d0352.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_114_51954617/96150cc96b8782d9db96.jpg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nga-ra-don-chot-ha-o-kursk-thua-co-danh-sumy-ukraine-truoc-tinh-the-nguy-cap-r51683519.epi</t>
+          <t>https://lite.baomoi.com/khoi-to-6-nhan-vien-cua-nha-xe-anh-phat-r51954617.epi</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Công bố Lệnh của Chủ tịch nước đối với Luật Ban hành văn bản quy phạm pháp luật (sửa đổi)</t>
+          <t>Tiền vệ Viktor Lê quá hay</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_146_51682396/2e432efe38b0d1ee88a1.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_329_51954570/6399ac43cb0d22537b1c.jpg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cong-bo-lenh-cua-chu-tich-nuoc-doi-voi-luat-ban-hanh-van-ban-quy-pham-phap-luat-sua-doi-r51682396.epi</t>
+          <t>https://lite.baomoi.com/tien-ve-viktor-le-qua-hay-r51954570.epi</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nước Mỹ 'dậy sóng' sau 50 ngày cầm quyền của ông Trump</t>
+          <t>Người vợ bị chồng bạo hành dã man ở Hà Nội lên tiếng</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_309_51683753/bc513fc72989c0d79998.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_23_51950956/bdf790d5f69b1fc5468a.jpg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nuoc-my-day-song-sau-50-ngay-cam-quyen-cua-ong-trump-r51683753.epi</t>
+          <t>https://lite.baomoi.com/nguoi-vo-bi-chong-bao-hanh-da-man-o-ha-noi-len-tieng-r51950956.epi</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cựu Tổng thống Philippines Rodrigo Duterte bị bắt</t>
+          <t>Mốc son mới từ chuyến thăm Việt Nam của Tổng Bí thư, Chủ tịch Trung Quốc</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_83_51682799/726953ef45a1acfff5b0.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_23_51954794/68d64372243ccd62942d.jpg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cuu-tong-thong-philippines-rodrigo-duterte-bi-bat-r51682799.epi</t>
+          <t>https://lite.baomoi.com/moc-son-moi-tu-chuyen-tham-viet-nam-cua-tong-bi-thu-chu-tich-trung-quoc-r51954794.epi</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bé trai 15 tháng tuổi bị ô tô cán chết: Đình chỉ hoạt động cơ sở giữ trẻ</t>
+          <t>Ngày 1/5 là hạn chót để các địa phương nộp đề án sắp xếp đơn vị hành chính</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_83_51683265/ccd6155e0310ea4eb301.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_56_51954828/7e8668200f6ee630bf7f.jpg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/be-trai-15-thang-tuoi-bi-o-to-can-chet-dinh-chi-hoat-dong-co-so-giu-tre-r51683265.epi</t>
+          <t>https://lite.baomoi.com/ngay-1-5-la-han-chot-de-cac-dia-phuong-nop-de-an-sap-xep-don-vi-hanh-chinh-r51954828.epi</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chủ tịch Quốc hội: 'Tới đây sửa Hiến pháp, sáp nhập tỉnh, sắp xếp 60-70% xã'</t>
+          <t>Việt kiều đội U22 Việt Nam tỏa sáng, Hà Tĩnh thoát thua Thể Công Viettel</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_65_51682662/b30808881ec6f798aed7.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_83_51954822/cdbabe1cd952300c6943.jpg</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chu-tich-quoc-hoi-toi-day-sua-hien-phap-sap-nhap-tinh-sap-xep-60-70-xa-r51682662.epi</t>
+          <t>https://lite.baomoi.com/viet-kieu-doi-u22-viet-nam-toa-sang-ha-tinh-thoat-thua-the-cong-viettel-r51954822.epi</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Liên bang Nga lên tiếng sau khi Đan Mạch tuyên bố sẵn sàng đưa quân tới Ukraine</t>
+          <t>Công an Nghệ An phá đường dây mua bán người sang các đặc khu Tam giác Vàng</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_294_51681895/9b40fcf5eabb03e55aaa.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2_sm/2025_04_11_65_51954891/3778c8ccaf8246dc1f93.jpg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/lien-bang-nga-len-tieng-sau-khi-dan-mach-tuyen-bo-san-sang-dua-quan-toi-ukraine-r51681895.epi</t>
+          <t>https://lite.baomoi.com/cong-an-nghe-an-pha-duong-day-mua-ban-nguoi-sang-cac-dac-khu-tam-giac-vang-r51954891.epi</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7 hòn đảo đẹp nhất châu Á bạn nên ghé thăm ít nhất một lần trong đời</t>
+          <t>Đến Hokkaido ngắm cá voi sát thủ, đại bàng biển</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_08_296_51663625/1b47a667bc2955770c38.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_08_465_51917697/3a337fb216fcffa2a6ed.jpg</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/7-hon-dao-dep-nhat-chau-a-ban-nen-ghe-tham-it-nhat-mot-lan-trong-doi-r51663625.epi</t>
+          <t>https://lite.baomoi.com/den-hokkaido-ngam-ca-voi-sat-thu-dai-bang-bien-r51917697.epi</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Làm rõ nghi vấn đưa người cao tuổi từ huyện miền núi xuống thành phố để chào, bán hàng giá cao</t>
+          <t>Cuộc thi tìm kiếm hoa hậu cho nghề livestream</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_94_51681714/ddb8a708b14658180157.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_114_51954723/8f63dfc0b88e51d0089f.jpg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/lam-ro-nghi-van-dua-nguoi-cao-tuoi-tu-huyen-mien-nui-xuong-thanh-pho-de-chao-ban-hang-gia-cao-r51681714.epi</t>
+          <t>https://lite.baomoi.com/cuoc-thi-tim-kiem-hoa-hau-cho-nghe-livestream-r51954723.epi</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lật thuyền chở nhiều cầu thủ bóng đá, ít nhất 25 người thiệt mạng</t>
+          <t>'Siêu fan' của ông Trump quay lưng</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_329_51683077/9688e10ff7411e1f4750.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_119_51954876/1f61b5c9d2873bd96296.jpg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/lat-thuyen-cho-nhieu-cau-thu-bong-da-it-nhat-25-nguoi-thiet-mang-r51683077.epi</t>
+          <t>https://lite.baomoi.com/sieu-fan-cua-ong-trump-quay-lung-r51954876.epi</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nhất trí giảm 30% tiền thuê đất, Chủ tịch Quốc hội nói về việc sắp xếp tổ chức bộ máy cấp xã</t>
+          <t>TP.HCM sẽ cấm dạy thêm sau 20h</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_194_51683945/4548a8d3be9d57c30e8c.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_83_51954785/e07a9ddefa9013ce4a81.jpg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhat-tri-giam-30-tien-thue-dat-chu-tich-quoc-hoi-noi-ve-viec-sap-xep-to-chuc-bo-may-cap-xa-r51683945.epi</t>
+          <t>https://lite.baomoi.com/tp-hcm-se-cam-day-them-sau-20h-r51954785.epi</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tai nạn hi hữu khiến người đàn ông thiệt mạng khi hái xoài</t>
+          <t>Công an vào cuộc vụ DJ Ximer đánh vợ mới sinh tới tấp</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_23_51683291/f69e98168e5867063e49.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_15_51954428/5c29fffc98b271ec28a3.jpg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tai-nan-hi-huu-khien-nguoi-dan-ong-thiet-mang-khi-hai-xoai-r51683291.epi</t>
+          <t>https://lite.baomoi.com/cong-an-vao-cuoc-vu-dj-ximer-danh-vo-moi-sinh-toi-tap-r51954428.epi</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hải Phòng: Khởi công Dự án đường Vành đai 2</t>
+          <t>Tuyển kickboxing Việt Nam giành 5 HCV tại Cúp thế giới 2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_294_51683928/589f23073549dc178558.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_15_51954277/e992745e1310fa4ea301.jpg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hai-phong-khoi-cong-du-an-duong-vanh-dai-2-r51683928.epi</t>
+          <t>https://lite.baomoi.com/tuyen-kickboxing-viet-nam-gianh-5-hcv-tai-cup-the-gioi-2025-r51954277.epi</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ông Trump sắp bỏ lệnh cấm cung cấp vũ khí và tin tình báo cho Ukraine</t>
+          <t>Nhiều cá nhân bị kiểm tra liên quan vụ án Công ty Khu công nghiệp Cần Thơ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_23_51684057/936599fa8fb466ea3fa5.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_20_51954930/0c80202a4764ae3af775.jpg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ong-trump-sap-bo-lenh-cam-cung-cap-vu-khi-va-tin-tinh-bao-cho-ukraine-r51684057.epi</t>
+          <t>https://lite.baomoi.com/nhieu-ca-nhan-bi-kiem-tra-lien-quan-vu-an-cong-ty-khu-cong-nghiep-can-tho-r51954930.epi</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tình báo Nga tiết lộ kế hoạch đáng sợ của Anh về Ukraine</t>
+          <t>Thanh tra tỉnh kiểm tra vụ 'vé câu cá lạ' ở U Minh Hạ, Cà Mau</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_309_51680296/d31d5dc04b8ea2d0fb9f.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_114_51954672/8d6533c4548abdd4e49b.jpg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tinh-bao-nga-tiet-lo-ke-hoach-dang-so-cua-anh-ve-ukraine-r51680296.epi</t>
+          <t>https://lite.baomoi.com/thanh-tra-tinh-kiem-tra-vu-ve-cau-ca-la-o-u-minh-ha-ca-mau-r51954672.epi</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Trước thềm cuộc họp quan trọng với Mỹ, ông Zelensky nói Ukraine cam kết đối thoại mang tính xây dựng</t>
+          <t>Đề xuất chi 15.000 tỉ đồng giải quyết chính sách với công chức xã không đạt chuẩn</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2_sm/2025_03_11_296_51683307/c687640c72429b1cc253.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_15_51954835/d148f6ee91a078fe21b1.jpg</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/truoc-them-cuoc-hop-quan-trong-voi-my-ong-zelensky-noi-ukraine-cam-ket-doi-thoai-mang-tinh-xay-dung-r51683307.epi</t>
+          <t>https://lite.baomoi.com/de-xuat-chi-15-000-ti-dong-giai-quyet-chinh-sach-voi-cong-chuc-xa-khong-dat-chuan-r51954835.epi</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hoàng Đức nhận 1 tỷ đồng trước giờ lên tuyển Việt Nam</t>
+          <t>Làm rõ động cơ của đối tượng chuyên gây án bằng kéo</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_83_51683558/929f0a101c5ef500ac4f.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_197_51955055/ab58f3ea94a47dfa24b5.jpg</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hoang-duc-nhan-1-ty-dong-truoc-gio-len-tuyen-viet-nam-r51683558.epi</t>
+          <t>https://lite.baomoi.com/lam-ro-dong-co-cua-doi-tuong-chuyen-gay-an-bang-keo-r51955055.epi</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Vụ phát hiện thi thể trong nhà tắm khu chung cư cao cấp: Đã xác định danh tính nạn nhân</t>
+          <t>Đánh người tình dã man để đòi tiền, nam thanh niên bị khởi tố</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_03_11_296_51683553/9b6ab508a3464a181357.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_11_15_51954819/0a96a030c77e2e20776f.jpg</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vu-phat-hien-thi-the-trong-nha-tam-khu-chung-cu-cao-cap-da-xac-dinh-danh-tinh-nan-nhan-r51683553.epi</t>
+          <t>https://lite.baomoi.com/danh-nguoi-tinh-da-man-de-doi-tien-nam-thanh-nien-bi-khoi-to-r51954819.epi</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mỹ đòi hỏi nhiều hơn từ Ukraine ngoài việc ký thỏa thuận khoáng sản</t>
+          <t>Lịch thi đấu lượt về vòng tứ kết Europa League 2024/25: Chờ MU lấy vé bán kết</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_293_51684000/6f1ad687c0c9299770d8.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51954689/f95ab9fbdeb537eb6ea4.jpg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/my-doi-hoi-nhieu-hon-tu-ukraine-ngoai-viec-ky-thoa-thuan-khoang-san-r51684000.epi</t>
+          <t>https://lite.baomoi.com/lich-thi-dau-luot-ve-vong-tu-ket-europa-league-2024-25-cho-mu-lay-ve-ban-ket-r51954689.epi</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bức xúc thanh niên 'đánh rơi' bạn gái giữa đường để chạy trốn CSGT</t>
+          <t>Chuyển giao bắt buộc ngân hàng: Cần hết sức thận trọng!</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_94_51683981/634ebfd4a99a40c4198b.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_20_51954901/5dff5054371ade44870b.jpg</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/buc-xuc-thanh-nien-danh-roi-ban-gai-giua-duong-de-chay-tron-csgt-r51683981.epi</t>
+          <t>https://lite.baomoi.com/chuyen-giao-bat-buoc-ngan-hang-can-het-suc-than-trong-r51954901.epi</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Miền Bắc sắp đón không khí lạnh, thời tiết 1 tháng tới thay đổi bất ngờ</t>
+          <t>Quan điểm khác nhau về việc phá bỏ cây cầu sắt qua sông Cái Đôi Vàm, Cà Mau</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_296_51683554/8abc3d332b7dc2239b6c.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_114_51954657/1befd84ebf00565e0f11.jpg</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/mien-bac-sap-don-khong-khi-lanh-thoi-tiet-1-thang-toi-thay-doi-bat-ngo-r51683554.epi</t>
+          <t>https://lite.baomoi.com/quan-diem-khac-nhau-ve-viec-pha-bo-cay-cau-sat-qua-song-cai-doi-vam-ca-mau-r51954657.epi</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Đề xuất đường sắt tốc độ cao Bắc – Nam kết nối đến TP Cần Thơ dài 174 km</t>
+          <t>Việt Nam có trường đại học tư thục đạt kiểm định quốc tế ASIIN châu Âu</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_23_51684092/637b6de57bab92f5cbba.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_15_51954691/757e79df1e91f7cfae80.jpg</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/de-xuat-duong-sat-toc-do-cao-bac-nam-ket-noi-den-tp-can-tho-dai-174-km-r51684092.epi</t>
+          <t>https://lite.baomoi.com/viet-nam-co-truong-dai-hoc-tu-thuc-dat-kiem-dinh-quoc-te-asiin-chau-au-r51954691.epi</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ngoại trưởng Mỹ: Sự nhượng bộ từ cả hai phía sẽ là trung tâm trong bất kỳ thỏa thuận hòa bình nào</t>
+          <t>Cách sửa lỗi camera không hoạt động trong Google Chrome hiệu quả</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_197_51683709/14e59f7e8930606e3921.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_194_51952455/fdedfce59aab73f52aba.jpg</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ngoai-truong-my-su-nhuong-bo-tu-ca-hai-phia-se-la-trung-tam-trong-bat-ky-thoa-thuan-hoa-binh-nao-r51683709.epi</t>
+          <t>https://lite.baomoi.com/cach-sua-loi-camera-khong-hoat-dong-trong-google-chrome-hieu-qua-r51952455.epi</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Cư dân vụ cháy 56 người tử vong: 'Thảm kịch cướp đi 2 con, 2 cháu, tôi không thể yên giấc'</t>
+          <t>Fanpage của TikToker Dưỡng Dướng Dường vẫn chia sẻ hoạt động phát gạo</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_309_51684017/18bbd726c16828367179.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51954508/59d3d47bb3355a6b0324.jpg</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cu-dan-vu-chay-56-nguoi-tu-vong-tham-kich-cuop-di-2-con-2-chau-toi-khong-the-yen-giac-r51684017.epi</t>
+          <t>https://lite.baomoi.com/fanpage-cua-tiktoker-duong-duong-duong-van-chia-se-hoat-dong-phat-gao-r51954508.epi</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ba tuần ông Trump 'quay lưng' với Ukraine và châu Âu</t>
+          <t>Văn nghệ sĩ hội tụ tại Hà Nam, mở màn Trại sáng tác văn học nghệ thuật năm 2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_65_51683318/e520fab3ecfd05a35cec.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_197_51954951/2d9fae33c97d2023796c.jpg</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ba-tuan-ong-trump-quay-lung-voi-ukraine-va-chau-au-r51683318.epi</t>
+          <t>https://lite.baomoi.com/van-nghe-si-hoi-tu-tai-ha-nam-mo-man-trai-sang-tac-van-hoc-nghe-thuat-nam-2025-r51954951.epi</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Phát hiện thi thể nam thanh niên cùng CCCD và GPLX trôi dạt trên sông</t>
+          <t>Bí thư Trung ương Đoàn tiếp Đại sứ Venezuela tại Việt Nam</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51683682/957ab7eaa1a448fa11b5.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_20_51954647/87b4bd6ada24337a6a35.jpg</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/phat-hien-thi-the-nam-thanh-nien-cung-cccd-va-gplx-troi-dat-tren-song-r51683682.epi</t>
+          <t>https://lite.baomoi.com/bi-thu-trung-uong-doan-tiep-dai-su-venezuela-tai-viet-nam-r51954647.epi</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Đề xuất tăng thời gian nghỉ thai sản cho phụ nữ sinh con thứ 2</t>
+          <t>Khai mạc Giải leo núi 'Bước chân trên mây' mùa 2: Góp phần quảng bá tiềm năng du lịch Trạm Tấu</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51683874/e5bbdc2dca63233d7a72.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_296_51954889/d93ab392d4dc3d8264cd.jpg</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/de-xuat-tang-thoi-gian-nghi-thai-san-cho-phu-nu-sinh-con-thu-2-r51683874.epi</t>
+          <t>https://lite.baomoi.com/khai-mac-giai-leo-nui-buoc-chan-tren-may-mua-2-gop-phan-quang-ba-tiem-nang-du-lich-tram-tau-r51954889.epi</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Tổng thống Ukraine ra điều kiện để hướng tới hòa bình với Nga</t>
+          <t>Vị tướng quyền lực 25 tuổi</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_595_51682185/5e91eb29fd6714394d76.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51954787/2cd8297c4e32a76cfe23.jpg</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tong-thong-ukraine-ra-dieu-kien-de-huong-toi-hoa-binh-voi-nga-r51682185.epi</t>
+          <t>https://lite.baomoi.com/vi-tuong-quyen-luc-25-tuoi-r51954787.epi</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Tin tức về chuyển nhượng 11/3: MU chốt Dumfries, Pogba trở lại</t>
+          <t>Câu hỏi còn để ngỏ về khả năng châu Âu triển khai lực lượng hòa bình tới Ukraine</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_23_51683898/1d03109a06d4ef8ab6c5.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_65_51954453/f54c17e370ad99f3c0bc.jpg</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tin-tuc-ve-chuyen-nhuong-11-3-mu-chot-dumfries-pogba-tro-lai-r51683898.epi</t>
+          <t>https://lite.baomoi.com/cau-hoi-con-de-ngo-ve-kha-nang-chau-au-trien-khai-luc-luong-hoa-binh-toi-ukraine-r51954453.epi</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Tân binh tuyển Việt Nam hy vọng chinh phục HLV Kim Sang Sik</t>
+          <t>Nghiên cứu khung tín dụng riêng hỗ trợ hợp tác xã chuyển đổi xanh</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_23_51683968/e3c250584616af48f607.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_341_51954807/416682c0e58e0cd0559f.jpg</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tan-binh-tuyen-viet-nam-hy-vong-chinh-phuc-hlv-kim-sang-sik-r51683968.epi</t>
+          <t>https://lite.baomoi.com/nghien-cuu-khung-tin-dung-rieng-ho-tro-hop-tac-xa-chuyen-doi-xanh-r51954807.epi</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Châu Âu có những gì thay thế nếu Mỹ ngừng viện trợ vũ khí cho Ukraine?</t>
+          <t>Chuyển giao bắt buộc ngân hàng yếu kém: Đừng để bình mới rượu cũ!</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_114_51683712/e312d481c2cf2b9172de.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_20_51954775/acd51171763f9f61c62e.jpg</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chau-au-co-nhung-gi-thay-the-neu-my-ngung-vien-tro-vu-khi-cho-ukraine-r51683712.epi</t>
+          <t>https://lite.baomoi.com/chuyen-giao-bat-buoc-ngan-hang-yeu-kem-dung-de-binh-moi-ruou-cu-r51954775.epi</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Tạm dừng bổ nhiệm, luân chuyển cán bộ tới khi hoàn thành sáp nhập, hợp nhất một số tỉnh</t>
+          <t>Ảnh khó tin về phi hành gia ngoài vũ trụ, ai xem cũng ngỡ ngàng</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_293_51681654/b73afe8be8c5019b58d4.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_180_51954561/175f79851ecbf795aeda.jpg</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tam-dung-bo-nhiem-luan-chuyen-can-bo-toi-khi-hoan-thanh-sap-nhap-hop-nhat-mot-so-tinh-r51681654.epi</t>
+          <t>https://lite.baomoi.com/anh-kho-tin-ve-phi-hanh-gia-ngoai-vu-tru-ai-xem-cung-ngo-ngang-r51954561.epi</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Thống đốc NHNN Nguyễn Thị Hồng tháp tùng Tổng Bí Thư Tô Lâm thăm chính thức Cộng hòa Indonesia</t>
+          <t>Phái viên Mỹ và Nga gặp nhau tại St Petersburg</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_59_51684009/dca62a3b3c75d52b8c64.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_65_51954649/39e09a46fd0814564d19.jpg</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thong-doc-nhnn-nguyen-thi-hong-thap-tung-tong-bi-thu-to-lam-tham-chinh-thuc-cong-hoa-indonesia-r51684009.epi</t>
+          <t>https://lite.baomoi.com/phai-vien-my-va-nga-gap-nhau-tai-st-petersburg-r51954649.epi</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Bị Nga vây ép dữ dội ở Kursk, tư lệnh Ukraine nói gì?</t>
+          <t>Ngăn chặn kịp thời đối tượng gọi điện thoại giả danh Công an để lừa đảo</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_5_51681350/61c4b869ae2747791e36.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_294_51954405/47f10223656d8c33d57c.jpg</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bi-nga-vay-ep-du-doi-o-kursk-tu-lenh-ukraine-noi-gi-r51681350.epi</t>
+          <t>https://lite.baomoi.com/ngan-chan-kip-thoi-doi-tuong-goi-dien-thoai-gia-danh-cong-an-de-lua-dao-r51954405.epi</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Trước khi chạm trán tuyển Việt Nam, HLV Gyutoku Koji được cắt vai trò tạm quyền</t>
+          <t>Khởi tố giám đốc Công ty TNHH tư vấn Nguyễn Gia Global</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_114_51683822/ef17728064ce8d90d4df.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_20_51954486/0f2cf8fa9fb476ea2fa5.jpg</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/truoc-khi-cham-tran-tuyen-viet-nam-hlv-gyutoku-koji-duoc-cat-vai-tro-tam-quyen-r51683822.epi</t>
+          <t>https://lite.baomoi.com/khoi-to-giam-doc-cong-ty-tnhh-tu-van-nguyen-gia-global-r51954486.epi</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cựu Chấp hành viên lợi dụng thi hành án chiếm đoạt tài sản</t>
+          <t>Hà Nội hướng dẫn học sinh đăng ký thi Tốt nghiệp Trung học phổ thông</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_106_51683673/e00169917fdf9681cfce.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_293_51954615/78c2261f4151a80ff140.jpg</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cuu-chap-hanh-vien-loi-dung-thi-hanh-an-chiem-doat-tai-san-r51683673.epi</t>
+          <t>https://lite.baomoi.com/ha-noi-huong-dan-hoc-sinh-dang-ky-thi-tot-nghiep-trung-hoc-pho-thong-r51954615.epi</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Chân dung 10 Gương mặt trẻ tiêu biểu toàn quân năm 2024</t>
+          <t>Chi tiết thời gian phát hành One UI 7 tại Việt Nam</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_20_51682541/95b3d53bc3752a2b7364.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_114_51954650/6f1aabbbccf525ab7ce4.jpg</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chan-dung-10-guong-mat-tre-tieu-bieu-toan-quan-nam-2024-r51682541.epi</t>
+          <t>https://lite.baomoi.com/chi-tiet-thoi-gian-phat-hanh-one-ui-7-tai-viet-nam-r51954650.epi</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Ngành ngân hàng phải giải áp lực kép</t>
+          <t>Cần Thơ nói về bệnh viện nghìn tỷ 'đắp chiếu' nhiều năm, 19 triệu dân trông chờ</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_03_11_95_51683951/e8aad831ce7f27217e6e.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51954562/7890454b2205cb5b9214.jpg</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nganh-ngan-hang-phai-giai-ap-luc-kep-r51683951.epi</t>
+          <t>https://lite.baomoi.com/can-tho-noi-ve-benh-vien-nghin-ty-dap-chieu-nhieu-nam-19-trieu-dan-trong-cho-r51954562.epi</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Xuất hiện 2 vật thể lạ, nghi là 'băng của người ngoài hành tinh'</t>
+          <t>Cô gái thành phố về quê ra mắt, bị cả họ nhà bạn trai phê bình</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51683723/329b43085546bc18e557.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51954715/95794dda2a94c3ca9a85.jpg</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/xuat-hien-2-vat-the-la-nghi-la-bang-cua-nguoi-ngoai-hanh-tinh-r51683723.epi</t>
+          <t>https://lite.baomoi.com/co-gai-thanh-pho-ve-que-ra-mat-bi-ca-ho-nha-ban-trai-phe-binh-r51954715.epi</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Tài xế xe đầu kéo mở cửa không quan sát, suýt đập trúng kính ô tô con</t>
+          <t>Cây cầu cao nhất thế giới sắp khánh thành, cảnh tượng choáng ngợp</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_23_51683967/a40bed90fbde12804bcf.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51954690/be9edb3ebc70552e0c61.jpg</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tai-xe-xe-dau-keo-mo-cua-khong-quan-sat-suyt-dap-trung-kinh-o-to-con-r51683967.epi</t>
+          <t>https://lite.baomoi.com/cay-cau-cao-nhat-the-gioi-sap-khanh-thanh-canh-tuong-choang-ngop-r51954690.epi</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Con gái David Beckham gây tranh cãi khi diện mốt váy ngủ</t>
+          <t>Cổ phiếu Ô tô TMT (TMT) bị đưa vào diện cảnh báo do lỗ lũy kế 269,98 tỉ đồng</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_119_51684044/33284eb458fab1a4e8eb.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_125_51954777/e4ac9d08fa4613184a57.jpg</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/con-gai-david-beckham-gay-tranh-cai-khi-dien-mot-vay-ngu-r51684044.epi</t>
+          <t>https://lite.baomoi.com/co-phieu-o-to-tmt-tmt-bi-dua-vao-dien-canh-bao-do-lo-luy-ke-269-98-ti-dong-r51954777.epi</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sứ mệnh của thanh niên Quân đội trong kỷ nguyên mới</t>
+          <t>Hai thanh niên tử vong sau khi uống 3 chai rượu, tông vào xe khách</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_16_51684137/b8491e290867e139b876.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_114_51954067/71245de63aa8d3f68ab9.jpg</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/su-menh-cua-thanh-nien-quan-doi-trong-ky-nguyen-moi-r51684137.epi</t>
+          <t>https://lite.baomoi.com/hai-thanh-nien-tu-vong-sau-khi-uong-3-chai-ruou-tong-vao-xe-khach-r51954067.epi</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Bắt đối tượng bị truy nã đặc biệt khi vừa xuống máy bay</t>
+          <t>Lâm Đồng giải quyết kiến nghị của Tập đoàn Than - Khoáng sản Việt Nam trước 31/6</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_106_51683782/53ed10780636ef68b627.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_294_51954761/2e78f9dc9e9277cc2e83.jpg</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bat-doi-tuong-bi-truy-na-dac-biet-khi-vua-xuong-may-bay-r51683782.epi</t>
+          <t>https://lite.baomoi.com/lam-dong-giai-quyet-kien-nghi-cua-tap-doan-than-khoang-san-viet-nam-truoc-31-6-r51954761.epi</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Kết hôn với cô dâu 54 tuổi, chú rể 27 tuổi tỏ thái độ bất ngờ</t>
+          <t>'Ba con cừu' trở lại</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_296_51682581/5d12afacb9e250bc09f3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51954768/0ec2e56682286b763239.jpg</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ket-hon-voi-co-dau-54-tuoi-chu-re-27-tuoi-to-thai-do-bat-ngo-r51682581.epi</t>
+          <t>https://lite.baomoi.com/ba-con-cuu-tro-lai-r51954768.epi</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Giá USD lao dốc, dự báo mới nhất về tỉ giá tại Việt Nam</t>
+          <t>50 năm Thống nhất đất nước: Ước mơ lớn của Bác Hồ</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51683921/de2317bb01f5e8abb1e4.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_11_294_51954628/8844ed988ad663883ac7.jpg</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/gia-usd-lao-doc-du-bao-moi-nhat-ve-ti-gia-tai-viet-nam-r51683921.epi</t>
+          <t>https://lite.baomoi.com/50-nam-thong-nhat-dat-nuoc-uoc-mo-lon-cua-bac-ho-r51954628.epi</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Từ nay: Người dân phải đáp ứng điều kiện này mới được đi xe máy ra đường, tránh bị CSGT phạt hơn 10 triệu</t>
+          <t>Công an Hà Nội nghiên cứu, quán triệt tác phẩm của Tổng Bí thư Tô Lâm</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_625_51681159/623ed296c4d82d8674c9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_181_51954816/704ac6eca1a248fc11b3.jpg</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tu-nay-nguoi-dan-phai-dap-ung-dieu-kien-nay-moi-duoc-di-xe-may-ra-duong-tranh-bi-csgt-phat-hon-10-trieu-r51681159.epi</t>
+          <t>https://lite.baomoi.com/cong-an-ha-noi-nghien-cuu-quan-triet-tac-pham-cua-tong-bi-thu-to-lam-r51954816.epi</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Tiêu chí lựa chọn cấp phó và trưởng ở BHXH cấp huyện, tỉnh</t>
+          <t>Hình ảnh gợi cảm quá mức của Hoa hậu Thùy Tiên bị đào lại</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_114_51683878/8835f8a3eeed07b35efc.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_329_51953745/7e877470133efa60a32f.jpg</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tieu-chi-lua-chon-cap-pho-va-truong-o-bhxh-cap-huyen-tinh-r51683878.epi</t>
+          <t>https://lite.baomoi.com/hinh-anh-goi-cam-qua-muc-cua-hoa-hau-thuy-tien-bi-dao-lai-r51953745.epi</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Vì sao Trung Quốc nhắm vào nông sản Mỹ trong cuộc chiến thuế quan?</t>
+          <t>Hai phương án tái khởi động dự án bệnh viện ngàn tỷ 'phơi sương' ở Cần Thơ</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_3_51683916/71d2ec4afa04135a4a15.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_5_51954671/88243f8558cbb195e8da.jpg</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vi-sao-trung-quoc-nham-vao-nong-san-my-trong-cuoc-chien-thue-quan-r51683916.epi</t>
+          <t>https://lite.baomoi.com/hai-phuong-an-tai-khoi-dong-du-an-benh-vien-ngan-ty-phoi-suong-o-can-tho-r51954671.epi</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Quảng Bình: Tạm dừng bổ nhiệm cán bộ cấp tỉnh, huyện, xã</t>
+          <t>Tuyệt chiêu mặc áo sơ mi tôn dáng cao ráo, thon thả mà chị em nên biết</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51683311/4c76f1fde7b30eed57a2.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_11_338_51954655/ff7a94a4f3ea1ab443fb.jpg</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/quang-binh-tam-dung-bo-nhiem-can-bo-cap-tinh-huyen-xa-r51683311.epi</t>
+          <t>https://lite.baomoi.com/tuyet-chieu-mac-ao-so-mi-ton-dang-cao-rao-thon-tha-ma-chi-em-nen-biet-r51954655.epi</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Lưu ý quan trọng khi mua đất nông nghiệp 'xen kẹt' trong khu dân cư</t>
+          <t>8 tài năng bóng đá Việt Nam có học bổng 100% sang Tây Ban Nha tập huấn</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_23_51683966/d52195ba83f46aaa33e5.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_237_51954585/664d39905edeb780eecf.jpg</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/luu-y-quan-trong-khi-mua-dat-nong-nghiep-xen-ket-trong-khu-dan-cu-r51683966.epi</t>
+          <t>https://lite.baomoi.com/8-tai-nang-bong-da-viet-nam-co-hoc-bong-100-sang-tay-ban-nha-tap-huan-r51954585.epi</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1 đoạn Vành đai 3 sẽ kết nối với cao tốc TP.HCM - Long Thành - Dầu Giây vào Lễ 30-4</t>
+          <t>Chiều ngày 11/4, Banxa tung tiền mua 30,5 triệu Pi Coin, giá Pi sắp tăng không cản nổi?</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_114_51683605/67369eb888f661a838e7.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_341_51954652/d822249343ddaa83f3cc.jpg</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/1-doan-vanh-dai-3-se-ket-noi-voi-cao-toc-tp-hcm-long-thanh-dau-giay-vao-le-30-4-r51683605.epi</t>
+          <t>https://lite.baomoi.com/chieu-ngay-11-4-banxa-tung-tien-mua-30-5-trieu-pi-coin-gia-pi-sap-tang-khong-can-noi-r51954652.epi</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Tìm bị hại trong vụ lừa bán đất dự án chiếm đoạt hàng trăm triệu đồng</t>
+          <t>Vàng đạt cột mốc 'hiếm hoi trong lịch sử', dốc két mua vào có rủi ro?</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_03_11_65_51683630/5ed989479f0976572f18.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51954308/bdc10f0f6841811fd850.jpg</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tim-bi-hai-trong-vu-lua-ban-dat-du-an-chiem-doat-hang-tram-trieu-dong-r51683630.epi</t>
+          <t>https://lite.baomoi.com/vang-dat-cot-moc-hiem-hoi-trong-lich-su-doc-ket-mua-vao-co-rui-ro-r51954308.epi</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Rắc rối khấu trừ, nộp thuế thay người bán, ngân hàng cầu cứu Cục Thuế</t>
+          <t>Cà Mau dẫn đầu bảng xếp hạng đánh giá thực hiện hiệu quả các FTA</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51683648/330a1d9b0bd5e28bbbc4.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_72_51954417/a472aaa0cdee24b07dff.jpg</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/rac-roi-khau-tru-nop-thue-thay-nguoi-ban-ngan-hang-cau-cuu-cuc-thue-r51683648.epi</t>
+          <t>https://lite.baomoi.com/ca-mau-dan-dau-bang-xep-hang-danh-gia-thuc-hien-hieu-qua-cac-fta-r51954417.epi</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Máy tính chạy bằng tế bào não sống của con người</t>
+          <t>Hàng ngàn nông sản đặc sắc hội tụ tại Khu trưng bày và giới thiệu sản phẩm HTX 2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_106_51683840/cb8da21ab4545d0a0445.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_594_51954727/96ce066c6122887cd133.jpg</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/may-tinh-chay-bang-te-bao-nao-song-cua-con-nguoi-r51683840.epi</t>
+          <t>https://lite.baomoi.com/hang-ngan-nong-san-dac-sac-hoi-tu-tai-khu-trung-bay-va-gioi-thieu-san-pham-htx-2025-r51954727.epi</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Thị trường chao đảo vì chứng khoán Mỹ, cổ phiếu đầu tư công ngược sóng</t>
+          <t>Tổ chức chơi tài xỉu online, 3 đối tượng lừa đảo chiếm đoạt hàng tỷ đồng</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_3_51683482/f00b468750c9b997e0d8.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_338_51954404/bfa4357e5230bb6ee221.jpg</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thi-truong-chao-dao-vi-chung-khoan-my-co-phieu-dau-tu-cong-nguoc-song-r51683482.epi</t>
+          <t>https://lite.baomoi.com/to-chuc-choi-tai-xiu-online-3-doi-tuong-lua-dao-chiem-doat-hang-ty-dong-r51954404.epi</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Hai trường chuyên ở TPHCM dự định tuyển sinh lớp 10 cả nước</t>
+          <t>Công nghệ tối ưu hóa môi trường giấc ngủ cho con người</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_23_51683963/2c196e8278cc9192c8dd.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_294_51954838/2505dbacbce255bc0cf3.jpg</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hai-truong-chuyen-o-tphcm-du-dinh-tuyen-sinh-lop-10-ca-nuoc-r51683963.epi</t>
+          <t>https://lite.baomoi.com/cong-nghe-toi-uu-hoa-moi-truong-giac-ngu-cho-con-nguoi-r51954838.epi</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>QBV Tiến Linh đăng ảnh 'thời còn phèn' khiến netizen thích thú</t>
+          <t>Khởi tố giám đốc doanh nghiệp và 11 đối tượng liên quan đến khai thác cát trái phép ở Thanh Hóa</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_180_51684022/5c6024fd32b3dbed82a2.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_20_51954358/2826f4f693b87ae623a9.jpg</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/qbv-tien-linh-dang-anh-thoi-con-phen-khien-netizen-thich-thu-r51684022.epi</t>
+          <t>https://lite.baomoi.com/khoi-to-giam-doc-doanh-nghiep-va-11-doi-tuong-lien-quan-den-khai-thac-cat-trai-phep-o-thanh-hoa-r51954358.epi</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Nghẹn ngào lời nhắn của Quý Bình lúc cuối đời dành cho Lâm Khánh Chi</t>
+          <t>Giám đốc Công an Bạc Liêu chúc Tết cổ truyền Chol Chnam Thmay</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_329_51682331/360df9b7eff906a75fe8.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_5_51954789/024c33e854a6bdf8e4b7.jpg</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nghen-ngao-loi-nhan-cua-quy-binh-luc-cuoi-doi-danh-cho-lam-khanh-chi-r51682331.epi</t>
+          <t>https://lite.baomoi.com/giam-doc-cong-an-bac-lieu-chuc-tet-co-truyen-chol-chnam-thmay-r51954789.epi</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Siêu du thuyền của tỷ phú Nga có thể được bán đấu giá tại Mỹ</t>
+          <t>Đã bắt được nghi can 70 tuổi chặn đường đâm người tình 48 tuổi tử vong</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51684013/8c0b629674d89d86c4c9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_15_51951475/72aa5a843ccad5948cdb.jpg</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/sieu-du-thuyen-cua-ty-phu-nga-co-the-duoc-ban-dau-gia-tai-my-r51684013.epi</t>
+          <t>https://lite.baomoi.com/da-bat-duoc-nghi-can-70-tuoi-chan-duong-dam-nguoi-tinh-48-tuoi-tu-vong-r51951475.epi</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Tông chủ tiệm rửa ô tô tử vong: Nữ tài xế đối diện tội danh gì?</t>
+          <t>Hà Nội chấn chỉnh công tác lưu trữ tài liệu trong quá trình sáp nhập, giải thể</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_296_51683567/990b6c847aca9394cadb.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_293_51954467/ce3008e76fa986f7dfb8.jpg</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tong-chu-tiem-rua-o-to-tu-vong-nu-tai-xe-doi-dien-toi-danh-gi-r51683567.epi</t>
+          <t>https://lite.baomoi.com/ha-noi-chan-chinh-cong-tac-luu-tru-tai-lieu-trong-qua-trinh-sap-nhap-giai-the-r51954467.epi</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Phát triển trung tâm logistics tại chu lai, Quảng Nam</t>
+          <t>Mạnh Trường nịnh vợ hết nấc, Bảo Thanh khoe con gái giống mẹ như đúc</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_342_51683890/3acce755f11b1845410a.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51954586/123d34e053aebaf0e3bf.jpg</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/phat-trien-trung-tam-logistics-tai-chu-lai-quang-nam-r51683890.epi</t>
+          <t>https://lite.baomoi.com/manh-truong-ninh-vo-het-nac-bao-thanh-khoe-con-gai-giong-me-nhu-duc-r51954586.epi</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Phó Chủ tịch Quốc hội Nguyễn Thị Thanh gặp Tổng Thư ký LHQ và Chủ tịch Đại hội đồng LHQ</t>
+          <t>Những ai không nên mặc trang phục có màu sắc sặc sỡ?</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_114_51683529/e1f2817e97307e6e2721.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_338_51954654/9ad0cc0eab40421e1b51.jpg</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/pho-chu-tich-quoc-hoi-nguyen-thi-thanh-gap-tong-thu-ky-lhq-va-chu-tich-dai-hoi-dong-lhq-r51683529.epi</t>
+          <t>https://lite.baomoi.com/nhung-ai-khong-nen-mac-trang-phuc-co-mau-sac-sac-so-r51954654.epi</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HLV Slot mất ăn mất ngủ vì PSG</t>
+          <t>Vụ DJ Ximer đánh vợ: Nạn nhân giải thích nguồn cơn dẫn đến xô xát, lý do bỏ qua cho chồng</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_114_51683658/8d6cc3fdd5b33ced65a2.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_105_51954412/79221bf07cbe95e0ccaf.jpg</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hlv-slot-mat-an-mat-ngu-vi-psg-r51683658.epi</t>
+          <t>https://lite.baomoi.com/vu-dj-ximer-danh-vo-nan-nhan-giai-thich-nguon-con-dan-den-xo-xat-ly-do-bo-qua-cho-chong-r51954412.epi</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Giá vàng thế giới tăng mạnh sau động thái của ông Trump</t>
+          <t>Bắt đầu giai đoạn giao mùa, thời tiết diễn biến khó lường khắp cả nước</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_20_51683435/0d81200c3642df1c8653.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51954421/957210c2778c9ed2c79d.jpg</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/gia-vang-the-gioi-tang-manh-sau-dong-thai-cua-ong-trump-r51683435.epi</t>
+          <t>https://lite.baomoi.com/bat-dau-giai-doan-giao-mua-thoi-tiet-dien-bien-kho-luong-khap-ca-nuoc-r51954421.epi</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Việt Nam gia hạn thêm 3 năm chính sách miễn thị thực cho công dân 12 nước</t>
+          <t>Chủ tịch Bình Định yêu cầu các khu, cụm công nghiệp phát triển theo hướng sinh thái</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_194_51683937/e768b9f0afbe46e01faf.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_72_51954354/3b201ef279bc90e2c9ad.jpg</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/viet-nam-gia-han-them-3-nam-chinh-sach-mien-thi-thuc-cho-cong-dan-12-nuoc-r51683937.epi</t>
+          <t>https://lite.baomoi.com/chu-tich-binh-dinh-yeu-cau-cac-khu-cum-cong-nghiep-phat-trien-theo-huong-sinh-thai-r51954354.epi</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Cao tốc Biên Hòa – Vũng Tàu thiếu 4,5 triệu m3 đất để đắp nền</t>
+          <t>Khối tài sản 'nhiều người ước' của Hoa hậu Mai Phương Thúy</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_112_51683655/f6a19c308a7e63203a6f.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_11_180_51954527/299f28474f09a657ff18.jpg</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cao-toc-bien-hoa-vung-tau-thieu-4-5-trieu-m3-dat-de-dap-nen-r51683655.epi</t>
+          <t>https://lite.baomoi.com/khoi-tai-san-nhieu-nguoi-uoc-cua-hoa-hau-mai-phuong-thuy-r51954527.epi</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Cuba trả tự do cho 553 tù nhân theo thỏa thuận với chính quyền của cựu Tổng thống Mỹ</t>
+          <t>Từ những 'sân khấu vỉa hè', một giọng ca 9X nỗ lực chứng minh tài năng, hứa hẹn sẽ là nhân tố mới của V-pop</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51683796/a4a558314e7fa721fe6e.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_176_51953675/b1fcf609914778192156.jpg</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cuba-tra-tu-do-cho-553-tu-nhan-theo-thoa-thuan-voi-chinh-quyen-cua-cuu-tong-thong-my-r51683796.epi</t>
+          <t>https://lite.baomoi.com/tu-nhung-san-khau-via-he-mot-giong-ca-9x-no-luc-chung-minh-tai-nang-hua-hen-se-la-nhan-to-moi-cua-v-pop-r51953675.epi</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EU 'thất vọng' trước sự thiếu cam kết của Mỹ trong nỗ lực tránh cuộc chiến thương mại</t>
+          <t>Đập phá xe ô tô, 3 đối tượng lĩnh án</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51684011/2084cc19da5733096a46.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_236_51954684/0d34029565db8c85d5ca.jpg</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/eu-that-vong-truoc-su-thieu-cam-ket-cua-my-trong-no-luc-tranh-cuoc-chien-thuong-mai-r51684011.epi</t>
+          <t>https://lite.baomoi.com/dap-pha-xe-o-to-3-doi-tuong-linh-an-r51954684.epi</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Thủ tướng giao Bộ Công an rà soát chính sách ưu đãi thị thực với tỉ phú, nhân vật nổi tiếng</t>
+          <t>Lâm Đồng gia tăng đột biến số ca mắc bệnh sởi</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51683474/c2b1843c92727b2c2263.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_14_51954666/28c94a7d2d33c46d9d22.jpg</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-tuong-giao-bo-cong-an-ra-soat-chinh-sach-uu-dai-thi-thuc-voi-ti-phu-nhan-vat-noi-tieng-r51683474.epi</t>
+          <t>https://lite.baomoi.com/lam-dong-gia-tang-dot-bien-so-ca-mac-benh-soi-r51954666.epi</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Nga cảnh báo Australia về hậu quả nghiêm trọng nếu điều quân đến Ukraine</t>
+          <t>Hơn 123.000 ô tô hết tiền trong tài khoản ETC vẫn lưu thông trên cao tốc</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_65_51682588/d68c2e32387cd122886d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51954281/e658429425dacc8495cb.jpg</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nga-canh-bao-australia-ve-hau-qua-nghiem-trong-neu-dieu-quan-den-ukraine-r51682588.epi</t>
+          <t>https://lite.baomoi.com/hon-123-000-o-to-het-tien-trong-tai-khoan-etc-van-luu-thong-tren-cao-toc-r51954281.epi</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Vụ 2 bé sốt, tử vong ở Quảng Nam: Cử đội y tế cơ động tới hỗ trợ Nam Trà My</t>
+          <t>Nhà phố đơn giản giữa Sài Gòn 'gây sốt' trên báo Mỹ</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_309_51683757/0f891a1b0c55e50bbc44.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_180_51954292/31317bfe1cb0f5eeaca1.jpg</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vu-2-be-sot-tu-vong-o-quang-nam-cu-doi-y-te-co-dong-toi-ho-tro-nam-tra-my-r51683757.epi</t>
+          <t>https://lite.baomoi.com/nha-pho-don-gian-giua-sai-gon-gay-sot-tren-bao-my-r51954292.epi</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Mỹ đánh giá đây là 'loạt thịt tốt nhất thế giới', ở Việt Nam vừa rẻ vừa nhiều</t>
+          <t>Kịp thời cứu sống du khách bị sóng cuốn khi tắm biển Nhật Lệ</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_296_51682816/778d1d0e0b40e21ebb51.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_94_51954350/45035fd5389bd1c5888a.jpg</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/my-danh-gia-day-la-loat-thit-tot-nhat-the-gioi-o-viet-nam-vua-re-vua-nhieu-r51682816.epi</t>
+          <t>https://lite.baomoi.com/kip-thoi-cuu-song-du-khach-bi-song-cuon-khi-tam-bien-nhat-le-r51954350.epi</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Bitcoin rơi xuống mức thấp nhất kể từ tháng 11/2024</t>
+          <t>Nhiều vướng mắc trong giải phóng mặt bằng dự án mở rộng QL46</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51683927/23a25f3a4974a02af965.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_296_51954396/39102bc24c8ca5d2fc9d.jpg</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bitcoin-roi-xuong-muc-thap-nhat-ke-tu-thang-11-2024-r51683927.epi</t>
+          <t>https://lite.baomoi.com/nhieu-vuong-mac-trong-giai-phong-mat-bang-du-an-mo-rong-ql46-r51954396.epi</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Khu vực đường ven Hồ Tây sắp được mở rộng, xây cầu</t>
+          <t>Chủ tịch VCCI: Tranh thủ bối cảnh để trong 'nguy thấy cơ và bay lên'</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_94_51683922/703d51a547ebaeb5f7fa.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_324_51954713/6c96b135d67b3f25666a.jpg</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/khu-vuc-duong-ven-ho-tay-sap-duoc-mo-rong-xay-cau-r51683922.epi</t>
+          <t>https://lite.baomoi.com/chu-tich-vcci-tranh-thu-boi-canh-de-trong-nguy-thay-co-va-bay-len-r51954713.epi</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Mở mộ cổ 2.700 tuổi, choáng váng thấy hài cốt đeo đầy vàng</t>
+          <t>Tiêm kích Su-35 Nga bất ngờ xuất hiện ở Algeria, chia đôi niềm hy vọng của Iran?</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_180_51683681/40eff47ce2320b6c5223.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/579c7af3a7b04eee17a1.png</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/mo-mo-co-2-700-tuoi-choang-vang-thay-hai-cot-deo-day-vang-r51683681.epi</t>
+          <t>https://lite.baomoi.com/tiem-kich-su-35-nga-bat-ngo-xuat-hien-o-algeria-chia-doi-niem-hy-vong-cua-iran-r51953818.epi</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Thổ Nhĩ Kỳ cam kết hỗ trợ Syria đẩy lùi bạo lực</t>
+          <t>Anh cân nhắc gửi quân đến Ukraine trong 5 năm</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51684012/3836d9abcfe526bb7ff4.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_20_51954379/634fb59cd2d23b8c62c3.jpg</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tho-nhi-ky-cam-ket-ho-tro-syria-day-lui-bao-luc-r51684012.epi</t>
+          <t>https://lite.baomoi.com/anh-can-nhac-gui-quan-den-ukraine-trong-5-nam-r51954379.epi</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Phó Thủ tướng đặt ra yêu cầu với dự án Vành đai 3 TP HCM</t>
+          <t>Diễn viên Trung Quốc đầu tiên hút hơn 5 tỷ lượt tương tác</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51683345/77725ff849b6a0e8f9a7.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51954507/0868b4b1d3ff3aa163ee.jpg</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/pho-thu-tuong-dat-ra-yeu-cau-voi-du-an-vanh-dai-3-tp-hcm-r51683345.epi</t>
+          <t>https://lite.baomoi.com/dien-vien-trung-quoc-dau-tien-hut-hon-5-ty-luot-tuong-tac-r51954507.epi</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Mỹ cắt giảm tài trợ an ninh mạng và hủy hơn 90 nghiên cứu khoa học</t>
+          <t>Lối đi nào cho Hojlund?</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51684010/876e67f371bd98e3c1ac.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51954377/c434d481b3cf5a9103de.jpg</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/my-cat-giam-tai-tro-an-ninh-mang-va-huy-hon-90-nghien-cuu-khoa-hoc-r51684010.epi</t>
+          <t>https://lite.baomoi.com/loi-di-nao-cho-hojlund-r51954377.epi</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Phong độ khó tin của tuyển thủ Nhật Bản</t>
+          <t>Hà Nội: Đề án sắp xếp đơn vị hành chính, làm rõ đặc trưng văn hóa - lịch sử</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_119_51683779/6c3be653f01d1943400c.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_197_51954766/d5a60a026d4c8412dd5d.jpg</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/phong-do-kho-tin-cua-tuyen-thu-nhat-ban-r51683779.epi</t>
+          <t>https://lite.baomoi.com/ha-noi-de-an-sap-xep-don-vi-hanh-chinh-lam-ro-dac-trung-van-hoa-lich-su-r51954766.epi</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Công bố Lệnh của Chủ tịch nước đối với Luật Ban hành văn bản quy phạm pháp luật</t>
+          <t>Hình ảnh tươi tắn của khối nữ diễu binh trong ngày tổng hợp luyện</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_207_51683776/65724be75da9b4f7edb8.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51954099/324ea48ac3c42a9a73d5.jpg</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cong-bo-lenh-cua-chu-tich-nuoc-doi-voi-luat-ban-hanh-van-ban-quy-pham-phap-luat-r51683776.epi</t>
+          <t>https://lite.baomoi.com/hinh-anh-tuoi-tan-cua-khoi-nu-dieu-binh-trong-ngay-tong-hop-luyen-r51954099.epi</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>'Lời nguyền Prada'</t>
+          <t>Công bố thành lập Ban Quản lý Dự án đầu tư xây dựng hạ tầng đô thị TP HCM</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_119_51683902/626702fe14b0fdeea4a1.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_15_51954161/e6b9e97f8e31676f3e20.jpg</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/loi-nguyen-prada-r51683902.epi</t>
+          <t>https://lite.baomoi.com/cong-bo-thanh-lap-ban-quan-ly-du-an-dau-tu-xay-dung-ha-tang-do-thi-tp-hcm-r51954161.epi</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Hình ảnh tàu chiến Nga – Trung Quốc xuất hiện ở Iran</t>
+          <t>'Hiếu khổng lồ' đấu đô vật Belarus 12 hiệp, chia thưởng gần 400 triệu đồng</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/26dc73b3aef047ae1ee1.png</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_83_51954177/bf671caf7be192bfcbf0.jpg</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hinh-anh-tau-chien-nga-trung-quoc-xuat-hien-o-iran-r51683810.epi</t>
+          <t>https://lite.baomoi.com/hieu-khong-lo-dau-do-vat-belarus-12-hiep-chia-thuong-gan-400-trieu-dong-r51954177.epi</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Nỗi lo thuế quan 'cuốn phăng' 4 nghìn tỷ USD khỏi thị trường chứng khoán Mỹ</t>
+          <t>50 năm Thống nhất đất nước: Học giả Australia ấn tượng với 50 năm chuyển mình của Việt Nam</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_3_51683154/6c7227f431bad8e481ab.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_294_51954345/201db1ccd6823fdc6693.jpg</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/noi-lo-thue-quan-cuon-phang-4-nghin-ty-usd-khoi-thi-truong-chung-khoan-my-r51683154.epi</t>
+          <t>https://lite.baomoi.com/50-nam-thong-nhat-dat-nuoc-hoc-gia-australia-an-tuong-voi-50-nam-chuyen-minh-cua-viet-nam-r51954345.epi</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Vụ người đàn ông ngồi trên nắp capo xe ô tô ở Đại lộ Thăng Long: Lái xe bị tạm giữ hình sự</t>
+          <t>Cần xác minh, xử lý nghiêm sự ngông cuồng, lệch chuẩn của Lê Việt Hùng</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_106_51683542/34d999568f1866463f09.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_35_51952769/12c128674f29a677ff38.jpg</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vu-nguoi-dan-ong-ngoi-tren-nap-capo-xe-o-to-o-dai-lo-thang-long-lai-xe-bi-tam-giu-hinh-su-r51683542.epi</t>
+          <t>https://lite.baomoi.com/can-xac-minh-xu-ly-nghiem-su-ngong-cuong-lech-chuan-cua-le-viet-hung-r51952769.epi</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Mbappe và Vinicius bằng mặt không bằng lòng, Real Madrid đau đầu</t>
+          <t>Cơ quan Thuế mạnh tay với doanh nghiệp 'ảo', trốn và nợ đọng thuế</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_23_51683621/708657084146a818f157.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_293_51954219/257eb0b5d7fb3ea567ea.jpg</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/mbappe-va-vinicius-bang-mat-khong-bang-long-real-madrid-dau-dau-r51683621.epi</t>
+          <t>https://lite.baomoi.com/co-quan-thue-manh-tay-voi-doanh-nghiep-ao-tron-va-no-dong-thue-r51954219.epi</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Cực dị loài ếch ngoài hành tinh 'hạ phàm', Việt Nam cũng có</t>
+          <t>Lập Ban chỉ đạo về giải quyết các vấn đề khó khăn, vướng mắc các dự án tồn đọng</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_180_51683646/46e5a775b13b5865012a.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_146_51953816/be1380eae7a40efa57b5.jpg</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cuc-di-loai-ech-ngoai-hanh-tinh-ha-pham-viet-nam-cung-co-r51683646.epi</t>
+          <t>https://lite.baomoi.com/lap-ban-chi-dao-ve-giai-quyet-cac-van-de-kho-khan-vuong-mac-cac-du-an-ton-dong-r51953816.epi</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Thử nghiệm lạ của tuyển U17 Thái Lan</t>
+          <t>Việt Trinh nói về tin ở biệt thự 3.000m2: Tôi không giàu có, chỉ đủ sống!</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_119_51683781/49c4b3aca5e24cbc15f3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51954151/efbe9277f5391c674528.jpg</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-nghiem-la-cua-tuyen-u17-thai-lan-r51683781.epi</t>
+          <t>https://lite.baomoi.com/viet-trinh-noi-ve-tin-o-biet-thu-3-000m2-toi-khong-giau-co-chi-du-song-r51954151.epi</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Xét nghiệm ADN con trai, chồng phát hiện bí mật động trời của vợ</t>
+          <t>Phục dựng chiến binh 4.000 tuổi, sững sờ diện mạo</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_83_51683230/218c6a057c4b9515cc5a.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_180_51954153/df4a6b820ccce592bcdd.jpg</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/xet-nghiem-adn-con-trai-chong-phat-hien-bi-mat-dong-troi-cua-vo-r51683230.epi</t>
+          <t>https://lite.baomoi.com/phuc-dung-chien-binh-4-000-tuoi-sung-so-dien-mao-r51954153.epi</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Nga bắn hạ MiG-29 của Ukraine, vô hiệu 5 bom dẫn đường JDAM</t>
+          <t>Chưa nhận được giấy phép lái xe nhựa PET, tài xế cần lưu ý gì khi đi đường?</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_236_51683714/c07b16e800a6e9f8b0b7.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_20_51954163/362249e42eaac7f49ebb.jpg</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nga-ban-ha-mig-29-cua-ukraine-vo-hieu-5-bom-dan-duong-jdam-r51683714.epi</t>
+          <t>https://lite.baomoi.com/chua-nhan-duoc-giay-phep-lai-xe-nhua-pet-tai-xe-can-luu-y-gi-khi-di-duong-r51954163.epi</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Giám đốc ĐHQG TP.HCM: 'Không có cơ chế chấp nhận rủi ro, nhà khoa học không dám mạo hiểm'</t>
+          <t>Từ ngày mai, Hà Nội chuyển mưa lạnh</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_114_51683598/4ecf1d400b0ee250bb1f.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_207_51953900/3a5716aa71e498bac1f5.jpg</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/giam-doc-dhqg-tp-hcm-khong-co-co-che-chap-nhan-rui-ro-nha-khoa-hoc-khong-dam-mao-hiem-r51683598.epi</t>
+          <t>https://lite.baomoi.com/tu-ngay-mai-ha-noi-chuyen-mua-lanh-r51953900.epi</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Thông tin 70% cá ở hồ Ba Bể nhiễm sán lá gan bé là không chính xác</t>
+          <t>Rác thải bủa vây kênh Bắc cấp cho nhà máy nước</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_14_51683801/a6b188259e6b77352e7a.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_236_51954625/f4080fd7689981c7d888.jpg</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thong-tin-70-ca-o-ho-ba-be-nhiem-san-la-gan-be-la-khong-chinh-xac-r51683801.epi</t>
+          <t>https://lite.baomoi.com/rac-thai-bua-vay-kenh-bac-cap-cho-nha-may-nuoc-r51954625.epi</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Mỹ tái khẳng định mục tiêu phi hạt nhân hóa Triều Tiên sau vụ phóng tên lửa</t>
+          <t>Thành lập Đoàn đàm phán thương mại với Hoa Kỳ</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_293_51683745/96960d041b4af214ab5b.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_14_51954692/d17efbdf9c9175cf2c80.jpg</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/my-tai-khang-dinh-muc-tieu-phi-hat-nhan-hoa-trieu-tien-sau-vu-phong-ten-lua-r51683745.epi</t>
+          <t>https://lite.baomoi.com/thanh-lap-doan-dam-phan-thuong-mai-voi-hoa-ky-r51954692.epi</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Garo Sero thách thức lời đe dọa pháp lý của Kim Soo Hyun</t>
+          <t>Tăng 3.000 chỉ tiêu vào 119 trường THPT công lập Hà Nội</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_65_51683771/4d2b1c490a07e359ba16.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_207_51953917/c270aa8ccdc2249c7dd3.jpg</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/garo-sero-thach-thuc-loi-de-doa-phap-ly-cua-kim-soo-hyun-r51683771.epi</t>
+          <t>https://lite.baomoi.com/tang-3-000-chi-tieu-vao-119-truong-thpt-cong-lap-ha-noi-r51953917.epi</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Video khoảnh khắc sập vỉa hè ở Bangkok, hai người đi bộ bị sụp hố</t>
+          <t>Chứng khoán tương lai Mỹ tăng điểm sau khi Trung Quốc tiếp tục tăng thuế</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_105_51683689/3c586cc87a8693d8ca97.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_293_51954220/cb6348a82fe6c6b89ff7.jpg</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/video-khoanh-khac-sap-via-he-o-bangkok-hai-nguoi-di-bo-bi-sup-ho-r51683689.epi</t>
+          <t>https://lite.baomoi.com/chung-khoan-tuong-lai-my-tang-diem-sau-khi-trung-quoc-tiep-tuc-tang-thue-r51954220.epi</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Những 'kỳ nhân' trong nội các Trump 2.0</t>
+          <t>Sập đường hầm tàu điện ngầm đang thi công ở Hàn Quốc, chạy đua tìm người mất tích</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_99_51683317/da223da92be7c2b99bf6.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_15_51953997/b1c1fb019c4f75112c5e.jpg</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhung-ky-nhan-trong-noi-cac-trump-2-0-r51683317.epi</t>
+          <t>https://lite.baomoi.com/sap-duong-ham-tau-dien-ngam-dang-thi-cong-o-han-quoc-chay-dua-tim-nguoi-mat-tich-r51953997.epi</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Hà Nội công bố danh sách 'phạt nguội' 492 ô tô trong tháng 2/2025</t>
+          <t>Tưởng niệm các liệt sĩ và ngư dân tử nạn trên vùng biển Đông Bắc của Tổ quốc</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51683741/a5207ab26cfc85a2dced.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_16_51954337/cb3198e0ffae16f04fbf.jpg</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ha-noi-cong-bo-danh-sach-phat-nguoi-492-o-to-trong-thang-2-2025-r51683741.epi</t>
+          <t>https://lite.baomoi.com/tuong-niem-cac-liet-si-va-ngu-dan-tu-nan-tren-vung-bien-dong-bac-cua-to-quoc-r51954337.epi</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Nỗi ám ảnh của chủ chung cư cháy, 56 người tử vong</t>
+          <t>Đoàn công tác Học viện Chính trị dâng hương tri ân Đại tướng Võ Nguyên Giáp</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_23_51683290/2a274baf5de1b4bfedf0.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_16_51954335/822918f87fb696e8cfa7.jpg</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/noi-am-anh-cua-chu-chung-cu-chay-56-nguoi-tu-vong-r51683290.epi</t>
+          <t>https://lite.baomoi.com/doan-cong-tac-hoc-vien-chinh-tri-dang-huong-tri-an-dai-tuong-vo-nguyen-giap-r51954335.epi</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Đấu giá 37 khu đất để bổ sung nguồn vốn đầu tư công</t>
+          <t>Thực hiện Nghị định 168, tai nạn giao thông tại Quảng Ninh giảm sâu cả ba tiêu chí</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51683794/f6f50661102ff971a03e.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_14_51954481/f4210b846cca8594dcdb.jpg</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dau-gia-37-khu-dat-de-bo-sung-nguon-von-dau-tu-cong-r51683794.epi</t>
+          <t>https://lite.baomoi.com/thuc-hien-nghi-dinh-168-tai-nan-giao-thong-tai-quang-ninh-giam-sau-ca-ba-tieu-chi-r51954481.epi</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Đường Vành đai 3 TPHCM: Lo thiếu cát đắp nền và vật liệu xây dựng</t>
+          <t>Chính thức ban hành thông tư hướng dẫn thực hiện chính sách, chế độ thực hiện sắp xếp tổ chức bộ máy trong Bộ Quốc phòng</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_17_51683839/987ee8e9fea717f94eb6.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_16_51954553/97477a9c1dd2f48cadc3.jpg</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/duong-vanh-dai-3-tphcm-lo-thieu-cat-dap-nen-va-vat-lieu-xay-dung-r51683839.epi</t>
+          <t>https://lite.baomoi.com/chinh-thuc-ban-hanh-thong-tu-huong-dan-thuc-hien-chinh-sach-che-do-thuc-hien-sap-xep-to-chuc-bo-may-trong-bo-quoc-phong-r51954553.epi</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Điểm chung thú vị giữa hai nam chính 'cực sĩ' Bạch Kính Đình và Byeon Woo Seok</t>
+          <t>Hưng Yên đồng ý để Hà Nội làm chủ đầu tư xây cầu Ngọc Hồi 11.844 tỷ đồng</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/ae372a59f71a1e44470b.png</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_20_51954165/4e49208f47c1ae9ff7d0.jpg</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/diem-chung-thu-vi-giua-hai-nam-chinh-cuc-si-bach-kinh-dinh-va-byeon-woo-seok-r51683727.epi</t>
+          <t>https://lite.baomoi.com/hung-yen-dong-y-de-ha-noi-lam-chu-dau-tu-xay-cau-ngoc-hoi-11-844-ty-dong-r51954165.epi</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Ông Trump định xây cơ sở đất hiếm trong các căn cứ quân sự Mỹ</t>
+          <t>XSMN 12/4 - Trực tiếp kết quả xổ số miền Nam hôm nay 12/4/2025</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_20_51683669/1afd959c83d26a8c33c3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_83_51954187/681d51d5369bdfc5868a.jpg</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ong-trump-dinh-xay-co-so-dat-hiem-trong-cac-can-cu-quan-su-my-r51683669.epi</t>
+          <t>https://lite.baomoi.com/xsmn-12-4-truc-tiep-ket-qua-xo-so-mien-nam-hom-nay-12-4-2025-r51954187.epi</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Thứ trưởng Nguyễn Việt Hùng: Tập trung tối đa đẩy tiến độ cao tốc Hoài Nhơn - Quy Nhơn</t>
+          <t>Thủ tướng Thái Lan công bố chiến lược phục hồi ngành du lịch</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_30_51683748/c566cc06da4833166a59.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_65_51954207/3f17dea3b9ed50b309fc.jpg</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-truong-nguyen-viet-hung-tap-trung-toi-da-day-tien-do-cao-toc-hoai-nhon-quy-nhon-r51683748.epi</t>
+          <t>https://lite.baomoi.com/thu-tuong-thai-lan-cong-bo-chien-luoc-phuc-hoi-nganh-du-lich-r51954207.epi</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Lịch thi đấu và trực tiếp ĐT Việt Nam tháng 3/2025: Thử lửa với Campuchia và Lào</t>
+          <t>SpaceX sẽ phải lập công ty tại Việt Nam để cung cấp dich vụ Internet vệ tinh</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_65_51683517/8ea9423a5474bd2ae465.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51954149/6db51d7d7a33936dca22.jpg</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/lich-thi-dau-va-truc-tiep-dt-viet-nam-thang-3-2025-thu-lua-voi-campuchia-va-lao-r51683517.epi</t>
+          <t>https://lite.baomoi.com/spacex-se-phai-lap-cong-ty-tai-viet-nam-de-cung-cap-dich-vu-internet-ve-tinh-r51954149.epi</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Bộ Xây dựng đề nghị 6 tỉnh sớm cấp phép mỏ vật liệu</t>
+          <t>Đồng Tháp tiếp nhận 6 cá thể sếu đầu đỏ đầu tiên từ Thái Lan</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_30_51683346/3d53ae33b87d5123086c.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_236_51954731/0eda9a78fd3614684d27.jpg</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bo-xay-dung-de-nghi-6-tinh-som-cap-phep-mo-vat-lieu-r51683346.epi</t>
+          <t>https://lite.baomoi.com/dong-thap-tiep-nhan-6-ca-the-seu-dau-do-dau-tien-tu-thai-lan-r51954731.epi</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Tổng thống Trump cử đặc phái viên tới Nga để gặp ông Putin</t>
+          <t>Tuyên án giám đốc công ty bất động sản mua 40 sổ hồng giả giao cho khách</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_595_51683106/8e556ad37c9d95c3cc8c.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_114_51953781/12b9794f1e01f75fae10.jpg</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tong-thong-trump-cu-dac-phai-vien-toi-nga-de-gap-ong-putin-r51683106.epi</t>
+          <t>https://lite.baomoi.com/tuyen-an-giam-doc-cong-ty-bat-dong-san-mua-40-so-hong-gia-giao-cho-khach-r51953781.epi</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>'Thần sấm Belarus' chốt thời gian đấu vật với Hiếu 'khổng lồ'</t>
+          <t>Tăng cường tin cậy chiến lược và làm sâu sắc hơn hợp tác thực chất Việt -Trung</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_197_51683708/b72b54b842f6aba8f2e7.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_65_51953500/5593f8689f2676782f37.jpg</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/than-sam-belarus-chot-thoi-gian-dau-vat-voi-hieu-khong-lo-r51683708.epi</t>
+          <t>https://lite.baomoi.com/tang-cuong-tin-cay-chien-luoc-va-lam-sau-sac-hon-hop-tac-thuc-chat-viet-trung-r51953500.epi</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Tỷ phú Elon Musk nói mạng xã hội X bị tấn công quy mô lớn, nghi ngờ từ Ukraine</t>
+          <t>Máy chơi game sẽ đắt lên vì thuế quan</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_20_51683468/1c746ff979b790e9c9a6.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51954392/d8202af44dbaa4e4fdab.jpg</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ty-phu-elon-musk-noi-mang-xa-hoi-x-bi-tan-cong-quy-mo-lon-nghi-ngo-tu-ukraine-r51683468.epi</t>
+          <t>https://lite.baomoi.com/may-choi-game-se-dat-len-vi-thue-quan-r51954392.epi</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Thống nhất đưa 2 đại học quốc gia về Bộ GD&amp;ĐT quản lý</t>
+          <t>TP Hồ Chí Minh: Khẩn trương điều tra vụ nghi ngờ ngộ độc thực phẩm tại Trường TH Võ Thị Sáu</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_83_51683266/8934acb8baf653a80ae7.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_294_51954052/e7a82e6d4923a07df932.jpg</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thong-nhat-dua-2-dai-hoc-quoc-gia-ve-bo-gd-dt-quan-ly-r51683266.epi</t>
+          <t>https://lite.baomoi.com/tp-ho-chi-minh-khan-truong-dieu-tra-vu-nghi-ngo-ngo-doc-thuc-pham-tai-truong-th-vo-thi-sau-r51954052.epi</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Khẩn trương xử lý bất cập giao thông tại TP HCM</t>
+          <t>Nguyên nhân khiến nhiều người bị thương khi tắm biển Nha Trang</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51683308/d77268f97eb797e9cea6.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_114_51953037/a8b5d2a9b4e75db904f6.jpg</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/khan-truong-xu-ly-bat-cap-giao-thong-tai-tp-hcm-r51683308.epi</t>
+          <t>https://lite.baomoi.com/nguyen-nhan-khien-nhieu-nguoi-bi-thuong-khi-tam-bien-nha-trang-r51953037.epi</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Cấp cứu một ngư dân bị móc cần cẩu rơi trúng đầu trên vùng biển Cà Mau</t>
+          <t>Tử vi 12 cung hoàng đạo ngày 12/04: Bạch Dương phát triển, Thiên Bình thuận lợi</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_30_51683690/a415a985bfcb56950fda.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_83_51954460/862dbcf9dbb732e96ba6.jpg</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cap-cuu-mot-ngu-dan-bi-moc-can-cau-roi-trung-dau-tren-vung-bien-ca-mau-r51683690.epi</t>
+          <t>https://lite.baomoi.com/tu-vi-12-cung-hoang-dao-ngay-12-04-bach-duong-phat-trien-thien-binh-thuan-loi-r51954460.epi</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Nga tạo thế gọng kìm, 'bẫy' quân đội Ukraine trong chiến dịch phản công ở Kursk</t>
+          <t>Dừng ngay thói quen sạc pin kiểu này kẻo điện thoại 'chết yểu'</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51683522/f304f288e4c60d9854d7.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_180_51954157/1658f49193df7a8123ce.jpg</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nga-tao-the-gong-kim-bay-quan-doi-ukraine-trong-chien-dich-phan-cong-o-kursk-r51683522.epi</t>
+          <t>https://lite.baomoi.com/dung-ngay-thoi-quen-sac-pin-kieu-nay-keo-dien-thoai-chet-yeu-r51954157.epi</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Thành phố Hồ Chí Minh: Thiếu cát thi công dự án đường Vành đai 3</t>
+          <t>Sắp đưa ra xét xử dàn cựu lãnh đạo Tổng Công ty Chè gây thất thoát 38 tỷ đồng</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_14_51683802/b55587c1918f78d1219e.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_207_51954039/bda8236a4424ad7af435.jpg</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thanh-pho-ho-chi-minh-thieu-cat-thi-cong-du-an-duong-vanh-dai-3-r51683802.epi</t>
+          <t>https://lite.baomoi.com/sap-dua-ra-xet-xu-dan-cuu-lanh-dao-tong-cong-ty-che-gay-that-thoat-38-ty-dong-r51954039.epi</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Vụ dân xây tường chắn lòng đường: TP Chí Linh chỉ đạo gì?</t>
+          <t>Lễ hội Vía Bà Chúa Xứ tại Gò Tháp diễn ra trong 3 ngày</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_180_51683719/ce47f5d4e39a0ac4538b.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_14_51954489/b36b22d84596acc8f587.jpg</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vu-dan-xay-tuong-chan-long-duong-tp-chi-linh-chi-dao-gi-r51683719.epi</t>
+          <t>https://lite.baomoi.com/le-hoi-via-ba-chua-xu-tai-go-thap-dien-ra-trong-3-ngay-r51954489.epi</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Nhiều doanh nghiệp mua bán trái phép hóa đơn hàng trăm tỷ với 'công ty ma'</t>
+          <t>Cục Thuế truy thu, xử lý mạnh tay doanh nghiệp vi phạm nghĩa vụ thuế</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_72_51683139/e0b0803696787f262669.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51954095/3ab2f17696387f662629.jpg</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhieu-doanh-nghiep-mua-ban-trai-phep-hoa-don-hang-tram-ty-voi-cong-ty-ma-r51683139.epi</t>
+          <t>https://lite.baomoi.com/cuc-thue-truy-thu-xu-ly-manh-tay-doanh-nghiep-vi-pham-nghia-vu-thue-r51954095.epi</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Tắm sông Sài Gòn sau giờ học, một học sinh tử vong</t>
+          <t>Lập đề án hình thành các doanh nghiệp công nghệ chiến lược quy mô lớn</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_197_51683665/5e8606171059f907a048.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_20_51954164/1b2e65e802a6ebf8b2b7.jpg</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tam-song-sai-gon-sau-gio-hoc-mot-hoc-sinh-tu-vong-r51683665.epi</t>
+          <t>https://lite.baomoi.com/lap-de-an-hinh-thanh-cac-doanh-nghiep-cong-nghe-chien-luoc-quy-mo-lon-r51954164.epi</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Quy về một thang điểm</t>
+          <t>Xe tải đâm xe máy rồi bỏ chạy, kéo lê nạn nhân đến tử vong</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_181_51684041/8e6ceaf0fcbe15e04caf.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_56_51954829/f699a737c07929277068.jpg</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/quy-ve-mot-thang-diem-r51684041.epi</t>
+          <t>https://lite.baomoi.com/xe-tai-dam-xe-may-roi-bo-chay-keo-le-nan-nhan-den-tu-vong-r51954829.epi</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Mạng xã hội X của Elon Musk bị tấn công từ Ukraine, Starlink có nguy cơ bị thay thế?</t>
+          <t>Đại học Thái Nguyên tuyển sinh trên 19.500 chỉ tiêu năm 2025</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_23_51683056/cd2d8fa599eb70b529fa.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_181_51954528/087d8ea5e9eb00b559fa.jpg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/mang-xa-hoi-x-cua-elon-musk-bi-tan-cong-tu-ukraine-starlink-co-nguy-co-bi-thay-the-r51683056.epi</t>
+          <t>https://lite.baomoi.com/dai-hoc-thai-nguyen-tuyen-sinh-tren-19-500-chi-tieu-nam-2025-r51954528.epi</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sau sáp nhập, người nộp thuế Hà Nội và Hòa Bình sẽ thực hiện thủ tục thuế tại đâu?</t>
+          <t>Tổng thống Mỹ D. Trump ký sắc lệnh nới lỏng quy định xuất khẩu thiết bị quân sự</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_106_51683540/284d6cc17a8f93d1ca9e.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_294_51953419/510f40e527abcef597ba.jpg</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/sau-sap-nhap-nguoi-nop-thue-ha-noi-va-hoa-binh-se-thuc-hien-thu-tuc-thue-tai-dau-r51683540.epi</t>
+          <t>https://lite.baomoi.com/tong-thong-my-d-trump-ky-sac-lenh-noi-long-quy-dinh-xuat-khau-thiet-bi-quan-su-r51953419.epi</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Elon Musk mất hơn 22 tỷ USD</t>
+          <t>Audio: Mẹ chồng bật khóc khi nhận được món quà của con dâu</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_119_51683722/63b90d2a1b64f23aab75.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_338_51954287/c9d0c81caf52460c1f43.jpg</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/elon-musk-mat-hon-22-ty-usd-r51683722.epi</t>
+          <t>https://lite.baomoi.com/audio-me-chong-bat-khoc-khi-nhan-duoc-mon-qua-cua-con-dau-r51954287.epi</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>6 cách giúp gan, thận thải độc hiệu quả</t>
+          <t>Bảng xếp hạng V-League 2024/25 - Vòng 18 mới nhất</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_94_51683911/dc16758e63c08a9ed3d1.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51953886/b01db6c1d18f38d1619e.jpg</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/6-cach-giup-gan-than-thai-doc-hieu-qua-r51683911.epi</t>
+          <t>https://lite.baomoi.com/bang-xep-hang-v-league-2024-25-vong-18-moi-nhat-r51953886.epi</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Kỳ vọng đối với cuộc đàm phán Mỹ - Ukraine tại Saudi Arabia</t>
+          <t>Phê duyệt Đề án 'Định hướng lập pháp nhiệm kỳ Quốc hội khóa XVI của Chính phủ'</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_65_51683302/a410a18ab7c45e9a07d5.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_146_51953777/a698f66e9120787e2131.jpg</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ky-vong-doi-voi-cuoc-dam-phan-my-ukraine-tai-saudi-arabia-r51683302.epi</t>
+          <t>https://lite.baomoi.com/phe-duyet-de-an-dinh-huong-lap-phap-nhiem-ky-quoc-hoi-khoa-xvi-cua-chinh-phu-r51953777.epi</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Quy đổi tương đương điểm trúng tuyển: Công bằng với tất cả thí sinh</t>
+          <t>Cảnh báo sâu biển phá hoại vùng nuôi nhuyễn thể</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_181_51684042/004265de73909acec381.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_94_51954070/de1021d5469bafc5f68a.jpg</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/quy-doi-tuong-duong-diem-trung-tuyen-cong-bang-voi-tat-ca-thi-sinh-r51684042.epi</t>
+          <t>https://lite.baomoi.com/canh-bao-sau-bien-pha-hoai-vung-nuoi-nhuyen-the-r51954070.epi</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Bộ Nội vụ gấp rút hướng dẫn bổ sung đối tượng hưởng chế độ khi sắp xếp bộ máy</t>
+          <t>Giả mạo giấy tờ đất, chiếm đoạt hàng trăm triệu đồng rồi bỏ trốn</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_293_51683057/163dfaaeece005be5cf1.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_236_51954683/b76e8dcfea8103df5a90.jpg</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bo-noi-vu-gap-rut-huong-dan-bo-sung-doi-tuong-huong-che-do-khi-sap-xep-bo-may-r51683057.epi</t>
+          <t>https://lite.baomoi.com/gia-mao-giay-to-dat-chiem-doat-hang-tram-trieu-dong-roi-bo-tron-r51954683.epi</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Ông Nguyễn Ngọc Huyến được bổ nhiệm làm Giám đốc Bảo hiểm xã hội khu vực I (Hà Nội)</t>
+          <t>GS.TS Nguyễn Xuân Anh: Bậc thầy chế tạo vũ khí Việt Nam</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_106_51683544/6d9acc15da5b33056a4a.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_11_180_51954152/39d2ce18a95640081947.jpg</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ong-nguyen-ngoc-huyen-duoc-bo-nhiem-lam-giam-doc-bao-hiem-xa-hoi-khu-vuc-i-ha-noi-r51683544.epi</t>
+          <t>https://lite.baomoi.com/gs-ts-nguyen-xuan-anh-bac-thay-che-tao-vu-khi-viet-nam-r51954152.epi</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Bóc gỡ đường dây cho vay nặng lãi: Con nợ bị kiểm soát bằng iPhone</t>
+          <t>Các công ty Mỹ và Đông Nam Á gấp rút tranh thủ thời hạn hoãn áp thuế 90 ngày</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_106_51683420/7e11dd9ccbd2228c7bc3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_294_51954204/c4b1d779b03759690026.jpg</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/boc-go-duong-day-cho-vay-nang-lai-con-no-bi-kiem-soat-bang-iphone-r51683420.epi</t>
+          <t>https://lite.baomoi.com/cac-cong-ty-my-va-dong-nam-a-gap-rut-tranh-thu-thoi-han-hoan-ap-thue-90-ngay-r51954204.epi</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Tai nạn máy bay tại Mỹ khiến nhiều người bị thương</t>
+          <t>Cử thanh tra giám sát việc đình chỉ điểm dừng chân Khởi My ở chợ nổi Cái Răng</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_207_51683402/1694331e2550cc0e9541.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_56_51954994/41ca28644f2aa674ff3b.jpg</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tai-nan-may-bay-tai-my-khien-nhieu-nguoi-bi-thuong-r51683402.epi</t>
+          <t>https://lite.baomoi.com/cu-thanh-tra-giam-sat-viec-dinh-chi-diem-dung-chan-khoi-my-o-cho-noi-cai-rang-r51954994.epi</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Mạng xã hội X bị tấn công: Cú sốc với đế chế truyền thông của tỷ phú Elon Musk</t>
+          <t>Quảng Nam khảo sát nguyện vọng cán bộ khi sắp xếp đơn vị hành chính</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_14_51683982/5c6483fe95b07cee25a1.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_114_51953980/eb9d495c2e12c74c9e03.jpg</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/mang-xa-hoi-x-bi-tan-cong-cu-soc-voi-de-che-truyen-thong-cua-ty-phu-elon-musk-r51683982.epi</t>
+          <t>https://lite.baomoi.com/quang-nam-khao-sat-nguyen-vong-can-bo-khi-sap-xep-don-vi-hanh-chinh-r51953980.epi</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>'Nàng Tấm' Thùy Vi tiết lộ lý do dự thi Hoa hậu Hoàn vũ Việt Nam 2025</t>
+          <t>Tổng thống Trump sắp kiểm tra sức khỏe lần đầu trong nhiệm kỳ hai</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_03_11_65_51683520/f335e4a6f2e81bb642f9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51954097/962171e516abfff5a6ba.jpg</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nang-tam-thuy-vi-tiet-lo-ly-do-du-thi-hoa-hau-hoan-vu-viet-nam-2025-r51683520.epi</t>
+          <t>https://lite.baomoi.com/tong-thong-trump-sap-kiem-tra-suc-khoe-lan-dau-trong-nhiem-ky-hai-r51954097.epi</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Tiền vệ Việt kiều nhanh hòa nhập trong lần đầu lên U22 Việt Nam</t>
+          <t>Biển số xe máy 'ngũ quý 6' trúng đấu giá hơn 2 tỷ đồng</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51682967/56dddc59ca1723497a06.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51954020/a5a309656e2b8775de3a.jpg</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tien-ve-viet-kieu-nhanh-hoa-nhap-trong-lan-dau-len-u22-viet-nam-r51682967.epi</t>
+          <t>https://lite.baomoi.com/bien-so-xe-may-ngu-quy-6-trung-dau-gia-hon-2-ty-dong-r51954020.epi</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Chi cục Thuế khu vực IV sẵn sàng phục vụ theo mô hình mới</t>
+          <t>Công trường xây tàu điện ngầm ở Hàn Quốc bị sập, hai người mất tích trong lòng đất</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51683742/a226c44dd2033b5d6212.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_11_105_51954138/3aaadc6cbb22527c0b33.jpg</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chi-cuc-thue-khu-vuc-iv-san-sang-phuc-vu-theo-mo-hinh-moi-r51683742.epi</t>
+          <t>https://lite.baomoi.com/cong-truong-xay-tau-dien-ngam-o-han-quoc-bi-sap-hai-nguoi-mat-tich-trong-long-dat-r51954138.epi</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Ca khúc nổi tiếng trở thành 'bài hát diệt muỗi thần kỳ' ở Trung Quốc</t>
+          <t>Đi theo Google Maps, ô tô lao khỏi cầu vượt xây dở</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_83_51683119/bd3590b386fd6fa336ec.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/e9b048137951900fc940.png</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ca-khuc-noi-tieng-tro-thanh-bai-hat-diet-muoi-than-ky-o-trung-quoc-r51683119.epi</t>
+          <t>https://lite.baomoi.com/di-theo-google-maps-o-to-lao-khoi-cau-vuot-xay-do-r51954023.epi</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Tiến độ đại công trình nhà ga T3 Tân Sơn Nhất hiện nay ra sao?</t>
+          <t>Tượng đồng tê tê Long Giao trở thành bảo vật quốc gia</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51683217/b49bc012d65c3f02664d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51954041/f14c458e22c0cb9e92d1.jpg</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tien-do-dai-cong-trinh-nha-ga-t3-tan-son-nhat-hien-nay-ra-sao-r51683217.epi</t>
+          <t>https://lite.baomoi.com/tuong-dong-te-te-long-giao-tro-thanh-bao-vat-quoc-gia-r51954041.epi</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Ra mắt DRAM DDR5 dung lượng lớn, tốc độ cao cho AI</t>
+          <t>Du lịch Đài Loan thu hút du khách Việt Nam</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_296_51683684/1e9c290c3f42d61c8f53.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51954150/cd1afbdc9c9275cc2c83.jpg</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ra-mat-dram-ddr5-dung-luong-lon-toc-do-cao-cho-ai-r51683684.epi</t>
+          <t>https://lite.baomoi.com/du-lich-dai-loan-thu-hut-du-khach-viet-nam-r51954150.epi</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Mỹ định hình lại trật tự toàn cầu nhưng không theo cách thế giới mong đợi</t>
+          <t>NSND Trung Đức háo hức khi tái ngộ NSND Thu Hiền</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51682163/bd3bd182c7cc2e9277dd.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51954022/72255fe638a8d1f688b9.jpg</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/my-dinh-hinh-lai-trat-tu-toan-cau-nhung-khong-theo-cach-the-gioi-mong-doi-r51682163.epi</t>
+          <t>https://lite.baomoi.com/nsnd-trung-duc-hao-huc-khi-tai-ngo-nsnd-thu-hien-r51954022.epi</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Vụ con trai sát hại bố mẹ ở Bắc Giang: Nghi phạm có sổ theo dõi bệnh tâm thần</t>
+          <t>'Kén' nhà đầu tư làm dự án bệnh viện đa khoa Vũng Tàu</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_625_51682635/0d5a7fe469aa80f4d9bb.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_114_51953941/4fee0411635f8a01d34e.jpg</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vu-con-trai-sat-hai-bo-me-o-bac-giang-nghi-pham-co-so-theo-doi-benh-tam-than-r51682635.epi</t>
+          <t>https://lite.baomoi.com/ken-nha-dau-tu-lam-du-an-benh-vien-da-khoa-vung-tau-r51953941.epi</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Clip: Giật mình khoảnh khắc VĐV bị tấn công bằng baton giữa cuộc thi chạy tiếp sức</t>
+          <t>Truy tặng danh hiệu Anh hùng LLVT nhân dân đến Thiếu tướng Hoàng Thế Thiện</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_625_51683596/df2585aa93e47aba23f5.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_16_51954274/1ea4b568d2263b786237.jpg</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/clip-giat-minh-khoanh-khac-vdv-bi-tan-cong-bang-baton-giua-cuoc-thi-chay-tiep-suc-r51683596.epi</t>
+          <t>https://lite.baomoi.com/truy-tang-danh-hieu-anh-hung-llvt-nhan-dan-den-thieu-tuong-hoang-the-thien-r51954274.epi</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Lệnh cấm động cơ đốt trong của EU đối mặt với nhiều thách thức</t>
+          <t>15 năm đi khắp Việt Nam vẽ hơn 3.000 chân dung Mẹ Việt Nam Anh hùng</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51683606/eab958374e79a727fe68.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_94_51954109/ec659ba1fcef15b14cfe.jpg</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/lenh-cam-dong-co-dot-trong-cua-eu-doi-mat-voi-nhieu-thach-thuc-r51683606.epi</t>
+          <t>https://lite.baomoi.com/15-nam-di-khap-viet-nam-ve-hon-3-000-chan-dung-me-viet-nam-anh-hung-r51954109.epi</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Mỹ đề xuất thỏa thuận ngừng bắn có điều kiện</t>
+          <t>Vụ nhiều học sinh ở TP.HCM nôn ói, nhập viện: Bộ Y tế chỉ đạo khẩn</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51682926/131ec69bd0d5398b60c4.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_114_51953728/f61c7ceb1ba5f2fbabb4.jpg</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/my-de-xuat-thoa-thuan-ngung-ban-co-dieu-kien-r51682926.epi</t>
+          <t>https://lite.baomoi.com/vu-nhieu-hoc-sinh-o-tp-hcm-non-oi-nhap-vien-bo-y-te-chi-dao-khan-r51953728.epi</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Mạng X 'sập nguồn', tỷ phú Elon Musk giải thích lý do thiếu thuyết phục</t>
+          <t>Gặp nữ anh hùng bắn rơi máy bay khu trục Mỹ</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_30_51683640/eb4652d74499adc7f488.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_20_51954051/496324a143efaab1f3fe.jpg</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/mang-x-sap-nguon-ty-phu-elon-musk-giai-thich-ly-do-thieu-thuyet-phuc-r51683640.epi</t>
+          <t>https://lite.baomoi.com/gap-nu-anh-hung-ban-roi-may-bay-khu-truc-my-r51954051.epi</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Vận tải đường sắt báo lãi lớn sau 2 tháng hợp nhất</t>
+          <t>Bộ Y tế ban hành hàng nghìn chỉ số cận lâm sàng cho chuẩn hóa liên thông xét nghiệm</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_146_51683460/10c4714967078e59d716.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_94_51953982/2f918350e41e0d40540f.jpg</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/van-tai-duong-sat-bao-lai-lon-sau-2-thang-hop-nhat-r51683460.epi</t>
+          <t>https://lite.baomoi.com/bo-y-te-ban-hanh-hang-nghin-chi-so-can-lam-sang-cho-chuan-hoa-lien-thong-xet-nghiem-r51953982.epi</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Cô gái bất ngờ bị bầy chó hoang tấn công dữ dội trên đường</t>
+          <t>Ninh Bình chuẩn bị đưa 2 mỏ khoáng sản ra tổ chức đấu giá</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/26dc73b3aef047ae1ee1.png</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_180_51954113/23dea319c4572d097446.jpg</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/co-gai-bat-ngo-bi-bay-cho-hoang-tan-cong-du-doi-tren-duong-r51683515.epi</t>
+          <t>https://lite.baomoi.com/ninh-binh-chuan-bi-dua-2-mo-khoang-san-ra-to-chuc-dau-gia-r51954113.epi</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Ukraine bước vào đàm phán hòa bình trong thời khắc quyết định</t>
+          <t>Dự báo thời tiết ngày mai 12/4/2025: Không khí lạnh tràn về, Hà Nội mưa rào và giông</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51682998/933849bc5ff2b6acefe3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51953732/6d0bcffca8b241ec18a3.jpg</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ukraine-buoc-vao-dam-phan-hoa-binh-trong-thoi-khac-quyet-dinh-r51682998.epi</t>
+          <t>https://lite.baomoi.com/du-bao-thoi-tiet-ngay-mai-12-4-2025-khong-khi-lanh-tran-ve-ha-noi-mua-rao-va-giong-r51953732.epi</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TP.HCM chốt phương án dùng 47.900 tỷ đồng vốn ngân sách để đầu tư metro số 2</t>
+          <t>Đại sứ bất ngờ từ chức, quan hệ Mỹ - Ukraine đối mặt nguy cơ bất ổn</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_72_51683196/cf9a1213045ded03b44c.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_20_51953055/1bab5bb43dfad4a48deb.jpg</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tp-hcm-chot-phuong-an-dung-47-900-ty-dong-von-ngan-sach-de-dau-tu-metro-so-2-r51683196.epi</t>
+          <t>https://lite.baomoi.com/dai-su-bat-ngo-tu-chuc-quan-he-my-ukraine-doi-mat-nguy-co-bat-on-r51953055.epi</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Bộ Xây dựng thúc tiến độ dự án xây dựng đường cao tốc Biên Hòa - Vũng Tàu</t>
+          <t>Bình Thuận sẽ đón lượng lớn khách du lịch dịp lễ 30/4 - 1/5</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_17_51683670/a7382ba83de6d4b88df7.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_65_51953981/467494c3f38d1ad3439c.jpg</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bo-xay-dung-thuc-tien-do-du-an-xay-dung-duong-cao-toc-bien-hoa-vung-tau-r51683670.epi</t>
+          <t>https://lite.baomoi.com/binh-thuan-se-don-luong-lon-khach-du-lich-dip-le-30-4-1-5-r51953981.epi</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Huyện Thanh Oai và Đông Anh (Hà Nội) được công nhận đạt chuẩn nông thôn mới nâng cao</t>
+          <t>Đất nền hồi sinh sau thời gian 'đóng băng'</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_207_51683511/849fa213b45d5d03044c.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_341_51954116/b442158572cb9b95c2da.jpg</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/huyen-thanh-oai-va-dong-anh-ha-noi-duoc-cong-nhan-dat-chuan-nong-thon-moi-nang-cao-r51683511.epi</t>
+          <t>https://lite.baomoi.com/dat-nen-hoi-sinh-sau-thoi-gian-dong-bang-r51954116.epi</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Cô gái trẻ ngã vỡ gan, thận khi chụp ảnh tại bãi đá sông Hồng</t>
+          <t>Việt Nam ghi nhận ca tử vong đầu tiên do sởi ở người lớn</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_207_51683512/426065ec73a29afcc3b3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_94_51954474/2b56728015cefc90a5df.jpg</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/co-gai-tre-nga-vo-gan-than-khi-chup-anh-tai-bai-da-song-hong-r51683512.epi</t>
+          <t>https://lite.baomoi.com/viet-nam-ghi-nhan-ca-tu-vong-dau-tien-do-soi-o-nguoi-lon-r51954474.epi</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Những thách thức kinh tế chờ đón tân Thủ tướng Canada</t>
+          <t>Trao tặng bò giống cho nhân dân biên giới</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_3_51683153/afb562d0749e9dc0c48f.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_16_51954017/1437a5f4c2ba2be472ab.jpg</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhung-thach-thuc-kinh-te-cho-don-tan-thu-tuong-canada-r51683153.epi</t>
+          <t>https://lite.baomoi.com/trao-tang-bo-giong-cho-nhan-dan-bien-gioi-r51954017.epi</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sau nhiều năm 'vắng bóng', khách Nga lại dồn dập đến Nha Trang</t>
+          <t>Giá vàng ngày 11/4: Tăng 'dựng đứng', vượt 106 triệu đồng/lượng</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_114_51682755/41c8e14bf7051e5b4714.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_14_51954283/e9eb68240f6ae634bf7b.jpg</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/sau-nhieu-nam-vang-bong-khach-nga-lai-don-dap-den-nha-trang-r51682755.epi</t>
+          <t>https://lite.baomoi.com/gia-vang-ngay-11-4-tang-dung-dung-vuot-106-trieu-dong-luong-r51954283.epi</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Liverpool đấu với PSG: Salah giữa vinh quang và tiền bạc</t>
+          <t>Bộ Dân tộc và Tôn giáo chúc Tết Chôl Chnăm Thmây của đồng bào dân tộc Khmer</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_23_51683188/88a05f294967a039f976.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_65_51953615/3d22c8fcafb246ec1fa3.jpg</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/liverpool-dau-voi-psg-salah-giua-vinh-quang-va-tien-bac-r51683188.epi</t>
+          <t>https://lite.baomoi.com/bo-dan-toc-va-ton-giao-chuc-tet-chol-chnam-thmay-cua-dong-bao-dan-toc-khmer-r51953615.epi</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Giám đốc một công ty trên sàn chứng khoán xin nghỉ việc vì huyết áp cao</t>
+          <t>Vì sao150 tấn rác thải COVID-19 ở Bình Thuận 4 năm qua chưa được thanh toán tiền?</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51682986/4094b610a05e4900104f.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_114_51953188/bdd2f8319f7f76212f6e.jpg</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/giam-doc-mot-cong-ty-tren-san-chung-khoan-xin-nghi-viec-vi-huyet-ap-cao-r51682986.epi</t>
+          <t>https://lite.baomoi.com/vi-sao150-tan-rac-thai-covid-19-o-binh-thuan-4-nam-qua-chua-duoc-thanh-toan-tien-r51953188.epi</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>AI ngừng xin phép, 'tự suy nghĩ, tự quyết định' của Trung Quốc gây sốc toàn cầu</t>
+          <t>Lợi nhuận quý I/2025 của Volkswagen 'bốc hơi' 1,8 tỷ euro</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_72_51683138/602d78ab6ee587bbdef4.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_324_51954928/a4dcee76893860663929.jpg</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ai-ngung-xin-phep-tu-suy-nghi-tu-quyet-dinh-cua-trung-quoc-gay-soc-toan-cau-r51683138.epi</t>
+          <t>https://lite.baomoi.com/loi-nhuan-quy-i-2025-cua-volkswagen-boc-hoi-1-8-ty-euro-r51954928.epi</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Một công ty đa cấp ở Hà Nội dừng hoạt động</t>
+          <t>Samsung bất ngờ trì hoãn lịch ra mắt Galaxy S25 Edge</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_119_51683095/6791e317f5591c074548.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_194_51950647/2f526c010a4fe311ba5e.jpg</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/mot-cong-ty-da-cap-o-ha-noi-dung-hoat-dong-r51683095.epi</t>
+          <t>https://lite.baomoi.com/samsung-bat-ngo-tri-hoan-lich-ra-mat-galaxy-s25-edge-r51950647.epi</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Nga không kích, phá hủy kho vũ khí NATO của Ukraine</t>
+          <t>Kết quả xổ số Bình Phước hôm nay 12/4/2025 - XSBP 12/4</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_296_51682023/410c5aba4cf4a5aafce5.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_83_51954189/840398cbff8516db4f94.jpg</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nga-khong-kich-pha-huy-kho-vu-khi-nato-cua-ukraine-r51682023.epi</t>
+          <t>https://lite.baomoi.com/ket-qua-xo-so-binh-phuoc-hom-nay-12-4-2025-xsbp-12-4-r51954189.epi</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Quốc hội Mỹ 'chạy đua' ngăn chính phủ đóng cửa</t>
+          <t>Bộ Công Thương có chỉ đạo 'nóng' gửi doanh nghiệp sau chính sách thuế của Mỹ</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51683350/357126fa30b4d9ea80a5.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_114_51953814/83d9c620a16e4830117f.jpg</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/quoc-hoi-my-chay-dua-ngan-chinh-phu-dong-cua-r51683350.epi</t>
+          <t>https://lite.baomoi.com/bo-cong-thuong-co-chi-dao-nong-gui-doanh-nghiep-sau-chinh-sach-thue-cua-my-r51953814.epi</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Rủ đồng bọn chém đối thủ đứt lìa bàn chân do mâu thuẫn</t>
+          <t>Cá chết nổi dọc khu vực suối Khe Ác ở Hà Tĩnh</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_5_51683563/b091521e4450ad0ef441.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_236_51954356/0e97c647a10948571118.jpg</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ru-dong-bon-chem-doi-thu-dut-lia-ban-chan-do-mau-thuan-r51683563.epi</t>
+          <t>https://lite.baomoi.com/ca-chet-noi-doc-khu-vuc-suoi-khe-ac-o-ha-tinh-r51954356.epi</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Ngoại trưởng Mỹ hé lộ trọng tâm cuộc hội đàm với Ukraine ở Ả Rập Xê-út</t>
+          <t>Mỹ đạt thỏa thuận triển khai quân đội tới kênh đào Panama</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_296_51682315/685fd6e5c0ab29f570ba.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51953865/c1340cce6b8082dedb91.jpg</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ngoai-truong-my-he-lo-trong-tam-cuoc-hoi-dam-voi-ukraine-o-a-rap-xe-ut-r51682315.epi</t>
+          <t>https://lite.baomoi.com/my-dat-thoa-thuan-trien-khai-quan-doi-toi-kenh-dao-panama-r51953865.epi</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Hệ thống phòng không SAMP-T châu Âu chưa đủ sức thay thế Patriot của Mỹ tại Ukraine?</t>
+          <t>2 mỹ phẩm của Công ty Hana HP Group bị thu hồi toàn quốc</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_106_51683421/10bdc530d37e3a20636f.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_180_51953678/c45468a10fefe6b1bffe.jpg</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/he-thong-phong-khong-samp-t-chau-au-chua-du-suc-thay-the-patriot-cua-my-tai-ukraine-r51683421.epi</t>
+          <t>https://lite.baomoi.com/2-my-pham-cua-cong-ty-hana-hp-group-bi-thu-hoi-toan-quoc-r51953678.epi</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Vĩnh Phúc thành lập thêm 3 trường trung học công lập</t>
+          <t>Đồng USD lao dốc giữa bão thuế quan</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_207_51683509/bf6c63e075ae9cf0c5bf.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_324_51954630/74eaa035c77b2e25776a.jpg</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vinh-phuc-thanh-lap-them-3-truong-trung-hoc-cong-lap-r51683509.epi</t>
+          <t>https://lite.baomoi.com/dong-usd-lao-doc-giua-bao-thue-quan-r51954630.epi</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>HLV Park Hang Seo bất ngờ tái xuất</t>
+          <t>Indonesia ghi nhận 348 trận động đất núi lửa nông ở Bắc Sulawesi</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_329_51682218/b50fbc8faac1439f1ad0.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_294_51953943/80dc0423636d8a33d37c.jpg</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hlv-park-hang-seo-bat-ngo-tai-xuat-r51682218.epi</t>
+          <t>https://lite.baomoi.com/indonesia-ghi-nhan-348-tran-dong-dat-nui-lua-nong-o-bac-sulawesi-r51953943.epi</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>TP HCM: Mời thẩm định giá khu đất chung cư ở quận 7 lần 15</t>
+          <t>Đội tuyển U17 Việt Nam nỗ lực cho những giấc mơ xa hơn</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51683312/a63e25b533fbdaa583ea.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_294_51954059/6820bfe5d8ab31f568ba.jpg</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tp-hcm-moi-tham-dinh-gia-khu-dat-chung-cu-o-quan-7-lan-15-r51683312.epi</t>
+          <t>https://lite.baomoi.com/doi-tuyen-u17-viet-nam-no-luc-cho-nhung-giac-mo-xa-hon-r51954059.epi</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Tai nạn lao động trong công ty gỗ khiến 3 người thương vong</t>
+          <t>Sáp nhập Đài Phát thanh - Truyền hình Nam Định vào Báo Nam Định</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_258_51683040/dac63541230fca51931e.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_20_51953898/476c369151dfb881e1ce.jpg</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tai-nan-lao-dong-trong-cong-ty-go-khien-3-nguoi-thuong-vong-r51683040.epi</t>
+          <t>https://lite.baomoi.com/sap-nhap-dai-phat-thanh-truyen-hinh-nam-dinh-vao-bao-nam-dinh-r51953898.epi</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Bạn gái gợi cảm của Mario Maurer</t>
+          <t>Điều hành tỷ giá: Linh hoạt giải pháp hợp lý trước biến động thương trường</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_119_51683416/1c2f64a272ec9bb2c2fd.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_293_51953919/859d0a616d2f8471dd3e.jpg</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ban-gai-goi-cam-cua-mario-maurer-r51683416.epi</t>
+          <t>https://lite.baomoi.com/dieu-hanh-ty-gia-linh-hoat-giai-phap-hop-ly-truoc-bien-dong-thuong-truong-r51953919.epi</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Ô tô nhập khẩu từ Indonesia, Thái Lan bứt phá, áp đảo thị trường Việt Nam</t>
+          <t>Trung Quốc tăng thuế đối với hàng hóa Mỹ lên 125%</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_237_51683570/c8d6e959ff1716494f06.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_95_51953766/b7134ce52babc2f59bba.jpg</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/o-to-nhap-khau-tu-indonesia-thai-lan-but-pha-ap-dao-thi-truong-viet-nam-r51683570.epi</t>
+          <t>https://lite.baomoi.com/trung-quoc-tang-thue-doi-voi-hang-hoa-my-len-125-r51953766.epi</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Vàng rớt giá mạnh</t>
+          <t>Sau cơn đau nhức trong tai, mặt người phụ nữ biến dạng</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_119_51681722/7922349222dccb8292cd.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51954234/c61a62d0059eecc0b58f.jpg</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vang-rot-gia-manh-r51681722.epi</t>
+          <t>https://lite.baomoi.com/sau-con-dau-nhuc-trong-tai-mat-nguoi-phu-nu-bien-dang-r51954234.epi</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Giá gạo tăng cao, Nhật Bản đấu thầu 210.000 tấn gạo dự trữ nhằm bình ổn giá</t>
+          <t>Đóng cửa quán nước thu phí khách chụp ảnh cây gạo tại Hà Nam</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_594_51683572/a53372bc64f28dacd4e3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51952857/35c19bd7fd9914c74d88.jpg</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/gia-gao-tang-cao-nhat-ban-dau-thau-210-000-tan-gao-du-tru-nham-binh-on-gia-r51683572.epi</t>
+          <t>https://lite.baomoi.com/dong-cua-quan-nuoc-thu-phi-khach-chup-anh-cay-gao-tai-ha-nam-r51952857.epi</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Quảng Ngãi: Khánh thành Thư viện số Ba Tơ trị giá 5 tỷ đồng</t>
+          <t>Gia tăng nguy cơ mất cân đối cung cầu trong cung ứng điện</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_65_51683251/76f8019e17d0fe8ea7c1.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_14_51954258/ac0a94c7f3891ad74398.jpg</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/quang-ngai-khanh-thanh-thu-vien-so-ba-to-tri-gia-5-ty-dong-r51683251.epi</t>
+          <t>https://lite.baomoi.com/gia-tang-nguy-co-mat-can-doi-cung-cau-trong-cung-ung-dien-r51954258.epi</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Va chạm tàu chở 15 tấn xyanua ngoài khơi nước Anh</t>
+          <t>Cơ hội kết nối giao thương giữa Việt Nam và Trung Quốc</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_65_51682550/beae0b281d66f438ad77.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_324_51954712/4c7b93d8f4961dc84487.jpg</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/va-cham-tau-cho-15-tan-xyanua-ngoai-khoi-nuoc-anh-r51682550.epi</t>
+          <t>https://lite.baomoi.com/co-hoi-ket-noi-giao-thuong-giua-viet-nam-va-trung-quoc-r51954712.epi</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Đóng giả người nhà bệnh nhân để trộm điện thoại bán lấy tiền tiêu xài</t>
+          <t>Nam sinh lớp 7 ở Hải Dương bị nhóm bạn đánh hội đồng sau giờ tan học</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_625_51683133/5b132c953adbd3858aca.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_94_51953897/06a0575d3013d94d8002.jpg</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dong-gia-nguoi-nha-benh-nhan-de-trom-dien-thoai-ban-lay-tien-tieu-xai-r51683133.epi</t>
+          <t>https://lite.baomoi.com/nam-sinh-lop-7-o-hai-duong-bi-nhom-ban-danh-hoi-dong-sau-gio-tan-hoc-r51953897.epi</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Cây cô đơn, nhà hát Quan họ trong MV 'Bắc Bling' của Hòa Minzy có gì đặc biệt?</t>
+          <t>Ninh Bình: Kinh tế duy trì tăng trưởng khá, lĩnh vực công nghiệp tiếp tục là động lực quan trọng</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_65_51683301/d7c2d555c31b2a45730a.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_503_51954771/831e79ba1ef4f7aaaee5.jpg</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cay-co-don-nha-hat-quan-ho-trong-mv-bac-bling-cua-hoa-minzy-co-gi-dac-biet-r51683301.epi</t>
+          <t>https://lite.baomoi.com/ninh-binh-kinh-te-duy-tri-tang-truong-kha-linh-vuc-cong-nghiep-tiep-tuc-la-dong-luc-quan-trong-r51954771.epi</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Ẩu đả trong trường, nữ sinh 14 tuổi bị bạn học đâm chết thương tâm</t>
+          <t>Dự báo bi quan về thị trường ôtô Mỹ</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_625_51682558/27bf5c004a4ea310fa5f.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51953967/ad503a915ddfb481edce.jpg</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/au-da-trong-truong-nu-sinh-14-tuoi-bi-ban-hoc-dam-chet-thuong-tam-r51682558.epi</t>
+          <t>https://lite.baomoi.com/du-bao-bi-quan-ve-thi-truong-oto-my-r51953967.epi</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>35 thủ tục hành chính, dịch vụ công trực tuyến phân cấp tại Công an cấp xã</t>
+          <t>Thủ tướng yêu cầu xây dựng chính sách thị thực thuận tiện, linh hoạt cho khách du lịch</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_03_11_293_51682947/11a80e2d1863f13da872.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_95_51953945/63372fc84886a1d8f897.jpg</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/35-thu-tuc-hanh-chinh-dich-vu-cong-truc-tuyen-phan-cap-tai-cong-an-cap-xa-r51682947.epi</t>
+          <t>https://lite.baomoi.com/thu-tuong-yeu-cau-xay-dung-chinh-sach-thi-thuc-thuan-tien-linh-hoat-cho-khach-du-lich-r51953945.epi</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Cuộc sống bình yên trên hòn đảo Donald Trump muốn mua lại</t>
+          <t>UOB dự báo kịch bản tăng trưởng của Việt Nam năm 2025 trong bối cảnh mới</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_119_51682470/b5e2db5ccd12244c7d03.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_95_51953693/54b6d942be0c57520e1d.jpg</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cuoc-song-binh-yen-tren-hon-dao-donald-trump-muon-mua-lai-r51682470.epi</t>
+          <t>https://lite.baomoi.com/uob-du-bao-kich-ban-tang-truong-cua-viet-nam-nam-2025-trong-boi-canh-moi-r51953693.epi</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Xâm nhập mặn sẽ tăng cao ở Đồng bằng sông Cửu Long và TP.HCM</t>
+          <t>Cả gia đình 'chạy nước rút' cùng sĩ tử trong kỳ thi vào lớp 10 THPT công lập</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_114_51682824/557505f613b8fae6a3a9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_338_51953376/af1750cd3783dedd8792.jpg</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/xam-nhap-man-se-tang-cao-o-dong-bang-song-cuu-long-va-tp-hcm-r51682824.epi</t>
+          <t>https://lite.baomoi.com/ca-gia-dinh-chay-nuoc-rut-cung-si-tu-trong-ky-thi-vao-lop-10-thpt-cong-lap-r51953376.epi</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Phòng khám đa khoa gần 44 tỉ ở Quảng Nam bỏ hoang</t>
+          <t>Lương kỷ lục của Salah</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_114_51683016/ce6f97eb81a568fb31b4.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51953659/205d3daf5ae1b3bfeaf0.jpg</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/phong-kham-da-khoa-gan-44-ti-o-quang-nam-bo-hoang-r51683016.epi</t>
+          <t>https://lite.baomoi.com/luong-ky-luc-cua-salah-r51953659.epi</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Kiện toàn chức danh Chủ tịch huyện biên giới tỉnh Lạng Sơn</t>
+          <t>Giá trần cho điện mặt trời là gần 1.877 đồng/kWh</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_20_51682335/9650b0eaa6a44ffa16b5.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_95_51953735/65c229354e7ba725fe6a.jpg</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/kien-toan-chuc-danh-chu-tich-huyen-bien-gioi-tinh-lang-son-r51682335.epi</t>
+          <t>https://lite.baomoi.com/gia-tran-cho-dien-mat-troi-la-gan-1-877-dong-kwh-r51953735.epi</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Khách sạn thi công gây ảnh hưởng đến nhiều hộ dân ở Hải Phòng</t>
+          <t>Hòa Minzy mang 'Bắc Bling' về trường học, bị dàn đồng ca nhí 'cướp mic'</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_114_51682790/5d04648772c99b97c2d8.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_105_51954007/247bebb88cf665a83ce7.jpg</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/khach-san-thi-cong-gay-anh-huong-den-nhieu-ho-dan-o-hai-phong-r51682790.epi</t>
+          <t>https://lite.baomoi.com/hoa-minzy-mang-bac-bling-ve-truong-hoc-bi-dan-dong-ca-nhi-cuop-mic-r51954007.epi</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Bộ trưởng Đào Hồng Lan là Trưởng Ban chỉ đạo về đột phá phát triển khoa học, công nghệ, đổi mới sáng tạo và chuyển đổi số y tế</t>
+          <t>Quay lén nữ giáo viên, nhân viên dịch vụ đối mặt với loạt cáo buộc nặng nề</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_94_51682898/8b873102274cce12975d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_625_51953602/7a9809686e268778de37.jpg</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bo-truong-dao-hong-lan-la-truong-ban-chi-dao-ve-dot-pha-phat-trien-khoa-hoc-cong-nghe-doi-moi-sang-tao-va-chuyen-doi-so-y-te-r51682898.epi</t>
+          <t>https://lite.baomoi.com/quay-len-nu-giao-vien-nhan-vien-dich-vu-doi-mat-voi-loat-cao-buoc-nang-ne-r51953602.epi</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Xót xa khu nội trú cho học sinh, giáo viên bỏ hoang, trở thành ruộng mía</t>
+          <t>OpenAI đệ đơn kiện Elon Musk vì hành vi gây rối và cạnh tranh không lành mạnh</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_17_51683671/8c942d073b49d2178b58.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_294_51953944/5c50e2af85e16cbf35f0.jpg</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/xot-xa-khu-noi-tru-cho-hoc-sinh-giao-vien-bo-hoang-tro-thanh-ruong-mia-r51683671.epi</t>
+          <t>https://lite.baomoi.com/openai-de-don-kien-elon-musk-vi-hanh-vi-gay-roi-va-canh-tranh-khong-lanh-manh-r51953944.epi</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Vi phạm nhiều lần, VietABank bị xử phạt, truy thu thuế gần 4,2 tỷ đồng</t>
+          <t>Chứng khoán ngày 11/4: Thị trường tiếp tục thăng hoa, VN-Index lấy lại mốc 1.200 điểm</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_594_51683491/56a1cb2ddd63343d6d72.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_65_51953612/645d56a131efd8b181fe.jpg</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vi-pham-nhieu-lan-vietabank-bi-xu-phat-truy-thu-thue-gan-4-2-ty-dong-r51683491.epi</t>
+          <t>https://lite.baomoi.com/chung-khoan-ngay-11-4-thi-truong-tiep-tuc-thang-hoa-vn-index-lay-lai-moc-1-200-diem-r51953612.epi</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Cảnh sát giao thông huy động xe chở cát xử lý dầu nhớt đổ ra đường</t>
+          <t>Yeri (Red Velvet) khoe loạt ảnh ở Đà Nẵng</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_17_51683539/5da11d2d0b63e23dbb72.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51953969/c0e8d729b06759390076.jpg</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/canh-sat-giao-thong-huy-dong-xe-cho-cat-xu-ly-dau-nhot-do-ra-duong-r51683539.epi</t>
+          <t>https://lite.baomoi.com/yeri-red-velvet-khoe-loat-anh-o-da-nang-r51953969.epi</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Pi Network: Trên 90% giá trị nằm trong tay nhà phát triển</t>
+          <t>Bước tiến để 'gần dân' hơn</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_83_51682903/555533d3259dccc3958c.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_11_294_51952287/d7889d8cfbc2129c4bd3.jpg</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/pi-network-tren-90-gia-tri-nam-trong-tay-nha-phat-trien-r51682903.epi</t>
+          <t>https://lite.baomoi.com/buoc-tien-de-gan-dan-hon-r51952287.epi</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Lý do hoãn phiên tòa xét xử 38 bị cáo liên quan giấy phép lái xe giả</t>
+          <t>Vĩnh Phúc quảng bá du lịch tại Đà Nẵng</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51682591/3ea5f91bef55060b5f44.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_125_51954663/86e8d949be0757590e16.jpg</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ly-do-hoan-phien-toa-xet-xu-38-bi-cao-lien-quan-giay-phep-lai-xe-gia-r51682591.epi</t>
+          <t>https://lite.baomoi.com/vinh-phuc-quang-ba-du-lich-tai-da-nang-r51954663.epi</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Quân đội Mỹ tuyên bố hủy hàng loạt nghiên cứu về biến đổi khí hậu, lý do là gì?</t>
+          <t>Đón đoàn Quân y Trung Quốc sang khám chữa bệnh tại Việt Nam</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_194_51683287/cb93de1bc855210b7844.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_16_51952807/7c5241462708ce569719.jpg</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/quan-doi-my-tuyen-bo-huy-hang-loat-nghien-cuu-ve-bien-doi-khi-hau-ly-do-la-gi-r51683287.epi</t>
+          <t>https://lite.baomoi.com/don-doan-quan-y-trung-quoc-sang-kham-chua-benh-tai-viet-nam-r51952807.epi</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Midu và ông xã tận hưởng cuộc sống hôn nhân bên trong biệt thự đắt đỏ</t>
+          <t>Bệnh do amip nên ăn uống như thế nào?</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_65_51682704/3dd133562518cc469509.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_94_51954261/79a3436e2420cd7e9431.jpg</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/midu-va-ong-xa-tan-huong-cuoc-song-hon-nhan-ben-trong-biet-thu-dat-do-r51682704.epi</t>
+          <t>https://lite.baomoi.com/benh-do-amip-nen-an-uong-nhu-the-nao-r51954261.epi</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Thượng viện Mỹ phê chuẩn bà Lori Chavez-DeRemer làm Bộ trưởng Lao động</t>
+          <t>Quảng Ninh xác minh thông tin du khách tố bị tài xế xe điện đe dọa</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_294_51683351/1691091a1f54f60aaf45.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_114_51953368/e45eb8b6dff836a66fe9.jpg</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thuong-vien-my-phe-chuan-ba-lori-chavez-deremer-lam-bo-truong-lao-dong-r51683351.epi</t>
+          <t>https://lite.baomoi.com/quang-ninh-xac-minh-thong-tin-du-khach-to-bi-tai-xe-xe-dien-de-doa-r51953368.epi</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Ấn Độ trở lại đường đua, gạo Việt cần làm gì?</t>
+          <t>Cát xây dựng ở các tỉnh bắc miền Trung bất ngờ khan hiếm, giá tăng cao</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_114_51682649/3277baf6acb845e61ca9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_56_51954705/c224a288c5c62c9875d7.jpg</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/an-do-tro-lai-duong-dua-gao-viet-can-lam-gi-r51682649.epi</t>
+          <t>https://lite.baomoi.com/cat-xay-dung-o-cac-tinh-bac-mien-trung-bat-ngo-khan-hiem-gia-tang-cao-r51954705.epi</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Clip: Thót tim khoảnh khắc cựu võ sĩ quyền anh tước dao từ tay kẻ định 'tấn công sân bay'</t>
+          <t>'Thần Sấm' Zakhar đấu với Hiếu Khổng Lồ</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/b3aa362f9960703e2971.png</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51953824/5bfefb069c4875162c59.jpg</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/clip-thot-tim-khoanh-khac-cuu-vo-si-quyen-anh-tuoc-dao-tu-tay-ke-dinh-tan-cong-san-bay-r51683136.epi</t>
+          <t>https://lite.baomoi.com/than-sam-zakhar-dau-voi-hieu-khong-lo-r51953824.epi</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Anh em trở mặt vì dó trầm</t>
+          <t>Hòa Minzy bị mạo danh</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_236_51683688/98aba53bb3755a2b0364.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51953963/c44f168e71c0989ec1d1.jpg</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/anh-em-tro-mat-vi-do-tram-r51683688.epi</t>
+          <t>https://lite.baomoi.com/hoa-minzy-bi-mao-danh-r51953963.epi</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Ủy ban Chứng khoán Nhà nước nêu loạt giải pháp nâng hạng thị trường, hé lộ thời gian vận hành KRX</t>
+          <t>Đắk Lắk yêu cầu các huyện tạm dừng tuyển dụng viên chức giáo dục</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_72_51682863/9d865404424aab14f25b.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_114_51953729/a6662e9149dfa081f9ce.jpg</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/uy-ban-chung-khoan-nha-nuoc-neu-loat-giai-phap-nang-hang-thi-truong-he-lo-thoi-gian-van-hanh-krx-r51682863.epi</t>
+          <t>https://lite.baomoi.com/dak-lak-yeu-cau-cac-huyen-tam-dung-tuyen-dung-vien-chuc-giao-duc-r51953729.epi</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Chủ tịch Quảng Nam: Không phân tâm vì sáp nhập, dừng mua xe công, quyết tâm tăng trưởng 10%</t>
+          <t>Sự kiện chứng khoán đáng chú ý ngày 12/4</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_114_51682729/1c8d330d2543cc1d9552.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_95_51953658/d383ab71cc3f25617c2e.jpg</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chu-tich-quang-nam-khong-phan-tam-vi-sap-nhap-dung-mua-xe-cong-quyet-tam-tang-truong-10-r51682729.epi</t>
+          <t>https://lite.baomoi.com/su-kien-chung-khoan-dang-chu-y-ngay-12-4-r51953658.epi</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Chuyên án đất đai ở Bà Rịa - Vũng Tàu: Tiếp tục mở rộng điều tra nhiều người liên quan</t>
+          <t>Chú rể Ấn Độ bỏ trốn cùng mẹ vợ trước đám cưới 10 ngày</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51682175/b48df034e67a0f24566b.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51952312/35e209ec6fa286fcdfb3.jpg</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chuyen-an-dat-dai-o-ba-ria-vung-tau-tiep-tuc-mo-rong-dieu-tra-nhieu-nguoi-lien-quan-r51682175.epi</t>
+          <t>https://lite.baomoi.com/chu-re-an-do-bo-tron-cung-me-vo-truoc-dam-cuoi-10-ngay-r51952312.epi</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Trả 5 tỷ đồng/m2 đất tại Thái Bình, người trúng đấu giá nói bị nhầm</t>
+          <t>Bị tráo sổ hồng khi rao bán nhà, 1 người dân ở TP.HCM đã được cấp lại</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_20_51682429/e65444e852a6bbf8e2b7.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_114_51953187/0273469021dec88091cf.jpg</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tra-5-ty-dong-m2-dat-tai-thai-binh-nguoi-trung-dau-gia-noi-bi-nham-r51682429.epi</t>
+          <t>https://lite.baomoi.com/bi-trao-so-hong-khi-rao-ban-nha-1-nguoi-dan-o-tp-hcm-da-duoc-cap-lai-r51953187.epi</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Mùa tới, Arsenal cũng khó mơ vô địch</t>
+          <t>Phó Bí thư Bình Thuận kiểm tra 'nóng' tiến độ 2 khu công nghiệp trọng điểm</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_119_51683206/28c8afa0b9ee50b009ff.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_296_51953874/aa8fec758b3b62653b2a.jpg</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/mua-toi-arsenal-cung-kho-mo-vo-dich-r51683206.epi</t>
+          <t>https://lite.baomoi.com/pho-bi-thu-binh-thuan-kiem-tra-nong-tien-do-2-khu-cong-nghiep-trong-diem-r51953874.epi</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Giữ thi thể con gái trong nhà 6 năm liền</t>
+          <t>Sưu tập của nhạc sĩ Hoàng Vân được vinh danh Di sản tư liệu thế giới</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_99_51682895/b684f206e4480d165459.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_119_51953166/6e908873ef3d06635f2c.jpg</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/giu-thi-the-con-gai-trong-nha-6-nam-lien-r51682895.epi</t>
+          <t>https://lite.baomoi.com/suu-tap-cua-nhac-si-hoang-van-duoc-vinh-danh-di-san-tu-lieu-the-gioi-r51953166.epi</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>James Cameron: 'Vợ tôi khóc ròng 4 tiếng khi xem Avatar 3'</t>
+          <t>Có thể bị phạt tù khi mua bán rùa để phóng sinh</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_119_51683413/086c7ee668a881f6d8b9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_94_51953574/7325afd5c89b21c5788a.jpg</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/james-cameron-vo-toi-khoc-rong-4-tieng-khi-xem-avatar-3-r51683413.epi</t>
+          <t>https://lite.baomoi.com/co-the-bi-phat-tu-khi-mua-ban-rua-de-phong-sinh-r51953574.epi</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Số ca sởi gia tăng, thận trọng với dấu hiệu bệnh sởi chuyển nặng</t>
+          <t>Thí sinh 21 tuổi được bác sĩ nhân trắc học khám kỹ tại Hoa hậu Việt Nam</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_338_51683692/e132b4a2a2ec4bb212fd.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_20_51954221/12f6d83cbf72562c0f63.jpg</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/so-ca-soi-gia-tang-than-trong-voi-dau-hieu-benh-soi-chuyen-nang-r51683692.epi</t>
+          <t>https://lite.baomoi.com/thi-sinh-21-tuoi-duoc-bac-si-nhan-trac-hoc-kham-ky-tai-hoa-hau-viet-nam-r51954221.epi</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Hà Nội truy thu, phạt Công ty THT - chủ dự án Starlake Tây Hồ Tây 4,5 tỷ đồng</t>
+          <t>Giá vàng hôm nay 11/4/2025: SJC và nhẫn vững trên đỉnh cao kỷ lục 105 triệu đồng</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_309_51683255/5843a4cbb2855bdb0294.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_23_51945898/22955c7b3b35d26b8b24.jpg</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ha-noi-truy-thu-phat-cong-ty-tht-chu-du-an-starlake-tay-ho-tay-4-5-ty-dong-r51683255.epi</t>
+          <t>https://lite.baomoi.com/gia-vang-hom-nay-11-4-2025-sjc-va-nhan-vung-tren-dinh-cao-ky-luc-105-trieu-dong-r51945898.epi</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Nước mặn tăng đột biến, đóng nhiều cống ngăn mặn khẩn cấp ở Tiền Giang</t>
+          <t>Bình Phước đề xuất đầu tư gần 4.500 tỷ đồng nâng cấp tuyến đường ĐT 753</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_65_51683033/882788ad9ee377bd2ef2.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_65_51953608/9ac5c877af3946671f28.jpg</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nuoc-man-tang-dot-bien-dong-nhieu-cong-ngan-man-khan-cap-o-tien-giang-r51683033.epi</t>
+          <t>https://lite.baomoi.com/binh-phuoc-de-xuat-dau-tu-gan-4-500-ty-dong-nang-cap-tuyen-duong-dt-753-r51953608.epi</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Hai cán bộ Công an kịp thời cứu người tham gia giao thông bị đột quỵ</t>
+          <t>Đảng ủy Bộ tư lệnh 86 ra kết luận lãnh đạo thực hiện nhiệm vụ quý II năm 2025</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_5_51683134/afd1cb57dd1934476d08.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_16_51953789/c1d3df25b86b5135087a.jpg</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hai-can-bo-cong-an-kip-thoi-cuu-nguoi-tham-gia-giao-thong-bi-dot-quy-r51683134.epi</t>
+          <t>https://lite.baomoi.com/dang-uy-bo-tu-lenh-86-ra-ket-luan-lanh-dao-thuc-hien-nhiem-vu-quy-ii-nam-2025-r51953789.epi</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Chùm ảnh núi lửa đang phun trào mạnh ở Guatemala</t>
+          <t>Mối tình xuyên thế kỷ</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_181_51683382/78f0e57af3341a6a4325.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_285_51953977/117eeabf8df164af3de0.jpg</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chum-anh-nui-lua-dang-phun-trao-manh-o-guatemala-r51683382.epi</t>
+          <t>https://lite.baomoi.com/moi-tinh-xuyen-the-ky-r51953977.epi</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Bất ngờ tài sản của tỷ phú Phạm Nhật Vượng</t>
+          <t>Máy bay trực thăng rơi xuống sông, một gia đình thiệt mạng</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_20_51681735/0f21329a24d4cd8a94c5.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/e9b048137951900fc940.png</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bat-ngo-tai-san-cua-ty-phu-pham-nhat-vuong-r51681735.epi</t>
+          <t>https://lite.baomoi.com/may-bay-truc-thang-roi-xuong-song-mot-gia-dinh-thiet-mang-r51953820.epi</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Xabi Alonso trước dấu mốc vĩ đại</t>
+          <t>Hoa hậu Nông Thúy Hằng cưới phó giám đốc công ty khoáng sản</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_119_51682456/d9454ad95c97b5c9ec86.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_20_51953424/d72b08c66f8886d6df99.jpg</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/xabi-alonso-truoc-dau-moc-vi-dai-r51682456.epi</t>
+          <t>https://lite.baomoi.com/hoa-hau-nong-thuy-hang-cuoi-pho-giam-doc-cong-ty-khoang-san-r51953424.epi</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Người phụ nữ bất ngờ tấn công người lạ tại trạm xăng, gọi nạn nhân là 'kẻ đáng ghét'</t>
+          <t>Vietlott 12/4 - Kết quả xổ số Vietlott hôm nay 12/4/2025 - Xổ số Power 6/55</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_625_51682832/12a17d266b688236db79.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_83_51953593/2aa46b540c1ae544bc0b.jpg</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nguoi-phu-nu-bat-ngo-tan-cong-nguoi-la-tai-tram-xang-goi-nan-nhan-la-ke-dang-ghet-r51682832.epi</t>
+          <t>https://lite.baomoi.com/vietlott-12-4-ket-qua-xo-so-vietlott-hom-nay-12-4-2025-xo-so-power-6-55-r51953593.epi</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Công Phượng và Viên Minh: Hình ảnh hiếm hoi hé lộ hạnh phúc viên mãn</t>
+          <t>Bảng giá ô tô Volkswagen mới nhất tháng 4/2025</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_296_51683046/c6c41243040ded53b41c.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_83_51953784/91e2d114b65a5f04064b.jpg</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cong-phuong-va-vien-minh-hinh-anh-hiem-hoi-he-lo-hanh-phuc-vien-man-r51683046.epi</t>
+          <t>https://lite.baomoi.com/bang-gia-o-to-volkswagen-moi-nhat-thang-4-2025-r51953784.epi</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Gặp cô gái TPHCM nhanh nhẹn, anh quản lý siêu thị vội tỏ tình</t>
+          <t>Khởi tố 9 đối tượng tổ chức đánh bạc và đánh bạc</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_23_51683295/38ba7d326b7c8222db6d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_14_51953845/57a6cf65a82b4175183a.jpg</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/gap-co-gai-tphcm-nhanh-nhen-anh-quan-ly-sieu-thi-voi-to-tinh-r51683295.epi</t>
+          <t>https://lite.baomoi.com/khoi-to-9-doi-tuong-to-chuc-danh-bac-va-danh-bac-r51953845.epi</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Choáng với cả trăm xe khách bát nháo: Cảnh sát giao thông nói thường xuyên xử lý</t>
+          <t>Bà Rịa - Vũng Tàu: Người đàn ông 2 lần trả tiền chuyển nhầm tài khoản</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_03_11_15_51682482/b924dd98cbd622887bc7.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_17_51953853/35d6be2dd963303d6972.jpg</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/choang-voi-ca-tram-xe-khach-bat-nhao-canh-sat-giao-thong-noi-thuong-xuyen-xu-ly-r51682482.epi</t>
+          <t>https://lite.baomoi.com/ba-ria-vung-tau-nguoi-dan-ong-2-lan-tra-tien-chuyen-nham-tai-khoan-r51953853.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Khai thác dữ liệu trên VneID để giải quyết thủ tục hành chính, không bắt người dân trình giấy tờ đã được số hóa</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_94_51953804/f0a3ad58ca1623487a07.jpg</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/khai-thac-du-lieu-tren-vneid-de-giai-quyet-thu-tuc-hanh-chinh-khong-bat-nguoi-dan-trinh-giay-to-da-duoc-so-hoa-r51953804.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Hợp luyện quy mô lớn chuẩn bị cho Lễ kỷ niệm 50 năm Giải phóng miền Nam, thống nhất đất nước</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_176_51953479/c0cf4223256dcc33957c.jpg</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hop-luyen-quy-mo-lon-chuan-bi-cho-le-ky-niem-50-nam-giai-phong-mien-nam-thong-nhat-dat-nuoc-r51953479.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Ngu Thư Hân chỉ đi ăn lẩu cũng gặp sóng gió, mang tiếng ăn theo Vương Hạc Đệ</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_11_105_51953848/2523a8d8cf9626c87f87.jpg</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ngu-thu-han-chi-di-an-lau-cung-gap-song-gio-mang-tieng-an-theo-vuong-hac-de-r51953848.epi</t>
         </is>
       </c>
     </row>
